--- a/04_outputs/PPI_Pillars.xlsx
+++ b/04_outputs/PPI_Pillars.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">geoname</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t xml:space="preserve">Good Relations with Neighbours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High Levels of Human Capital</t>
   </si>
   <si>
     <t xml:space="preserve">Burkina Faso</t>
@@ -407,10 +410,13 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="n">
         <v>2009</v>
@@ -439,10 +445,13 @@
       <c r="J2" t="n">
         <v>3.932</v>
       </c>
+      <c r="K2" t="n">
+        <v>4.079</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="n">
         <v>2010</v>
@@ -471,10 +480,13 @@
       <c r="J3" t="n">
         <v>3.916</v>
       </c>
+      <c r="K3" t="n">
+        <v>4.061</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="n">
         <v>2011</v>
@@ -503,10 +515,13 @@
       <c r="J4" t="n">
         <v>3.933</v>
       </c>
+      <c r="K4" t="n">
+        <v>4.039</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="n">
         <v>2012</v>
@@ -535,10 +550,13 @@
       <c r="J5" t="n">
         <v>3.885</v>
       </c>
+      <c r="K5" t="n">
+        <v>4.023</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="n">
         <v>2013</v>
@@ -567,10 +585,13 @@
       <c r="J6" t="n">
         <v>3.933</v>
       </c>
+      <c r="K6" t="n">
+        <v>4.016</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>2014</v>
@@ -599,10 +620,13 @@
       <c r="J7" t="n">
         <v>3.885</v>
       </c>
+      <c r="K7" t="n">
+        <v>3.998</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n">
         <v>2015</v>
@@ -631,10 +655,13 @@
       <c r="J8" t="n">
         <v>3.853</v>
       </c>
+      <c r="K8" t="n">
+        <v>3.981</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n">
         <v>2016</v>
@@ -663,10 +690,13 @@
       <c r="J9" t="n">
         <v>3.885</v>
       </c>
+      <c r="K9" t="n">
+        <v>3.965</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" t="n">
         <v>2017</v>
@@ -695,10 +725,13 @@
       <c r="J10" t="n">
         <v>3.853</v>
       </c>
+      <c r="K10" t="n">
+        <v>3.958</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="n">
         <v>2018</v>
@@ -727,10 +760,13 @@
       <c r="J11" t="n">
         <v>3.901</v>
       </c>
+      <c r="K11" t="n">
+        <v>3.94</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="n">
         <v>2019</v>
@@ -759,10 +795,13 @@
       <c r="J12" t="n">
         <v>3.853</v>
       </c>
+      <c r="K12" t="n">
+        <v>3.941</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" t="n">
         <v>2020</v>
@@ -791,10 +830,13 @@
       <c r="J13" t="n">
         <v>3.933</v>
       </c>
+      <c r="K13" t="n">
+        <v>3.951</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" t="n">
         <v>2021</v>
@@ -823,10 +865,13 @@
       <c r="J14" t="n">
         <v>3.949</v>
       </c>
+      <c r="K14" t="n">
+        <v>3.951</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" t="n">
         <v>2022</v>
@@ -854,6 +899,9 @@
       </c>
       <c r="J15" t="n">
         <v>4.403</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.951</v>
       </c>
     </row>
   </sheetData>

--- a/04_outputs/PPI_Pillars.xlsx
+++ b/04_outputs/PPI_Pillars.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">High Levels of Human Capital</t>
   </si>
   <si>
-    <t xml:space="preserve">Burkina Faso</t>
+    <t xml:space="preserve">Iraq</t>
   </si>
 </sst>
 </file>
@@ -422,31 +422,31 @@
         <v>2009</v>
       </c>
       <c r="C2" t="n">
-        <v>3.085</v>
+        <v>4.227</v>
       </c>
       <c r="D2" t="n">
-        <v>3.351</v>
+        <v>3.445</v>
       </c>
       <c r="E2" t="n">
-        <v>3.024</v>
+        <v>3.774</v>
       </c>
       <c r="F2" t="n">
-        <v>3.551</v>
+        <v>4.124</v>
       </c>
       <c r="G2" t="n">
-        <v>4.158</v>
+        <v>4.077</v>
       </c>
       <c r="H2" t="n">
-        <v>3.177</v>
+        <v>4.387</v>
       </c>
       <c r="I2" t="n">
-        <v>3.677</v>
+        <v>4.396</v>
       </c>
       <c r="J2" t="n">
-        <v>3.932</v>
+        <v>4.997</v>
       </c>
       <c r="K2" t="n">
-        <v>4.079</v>
+        <v>3.659</v>
       </c>
     </row>
     <row r="3">
@@ -457,31 +457,31 @@
         <v>2010</v>
       </c>
       <c r="C3" t="n">
-        <v>3.032</v>
+        <v>4.204</v>
       </c>
       <c r="D3" t="n">
-        <v>3.305</v>
+        <v>3.445</v>
       </c>
       <c r="E3" t="n">
-        <v>3.122</v>
+        <v>3.853</v>
       </c>
       <c r="F3" t="n">
-        <v>3.545</v>
+        <v>4.118</v>
       </c>
       <c r="G3" t="n">
-        <v>4.162</v>
+        <v>4.097</v>
       </c>
       <c r="H3" t="n">
-        <v>3.165</v>
+        <v>4.364</v>
       </c>
       <c r="I3" t="n">
-        <v>3.681</v>
+        <v>4.407</v>
       </c>
       <c r="J3" t="n">
-        <v>3.916</v>
+        <v>4.917</v>
       </c>
       <c r="K3" t="n">
-        <v>4.061</v>
+        <v>3.636</v>
       </c>
     </row>
     <row r="4">
@@ -492,31 +492,31 @@
         <v>2011</v>
       </c>
       <c r="C4" t="n">
-        <v>2.975</v>
+        <v>4.162</v>
       </c>
       <c r="D4" t="n">
-        <v>3.28</v>
+        <v>3.431</v>
       </c>
       <c r="E4" t="n">
-        <v>3.145</v>
+        <v>3.814</v>
       </c>
       <c r="F4" t="n">
-        <v>3.537</v>
+        <v>4.089</v>
       </c>
       <c r="G4" t="n">
-        <v>4.157</v>
+        <v>4.108</v>
       </c>
       <c r="H4" t="n">
-        <v>3.209</v>
+        <v>4.307</v>
       </c>
       <c r="I4" t="n">
-        <v>3.646</v>
+        <v>4.373</v>
       </c>
       <c r="J4" t="n">
-        <v>3.933</v>
+        <v>4.885</v>
       </c>
       <c r="K4" t="n">
-        <v>4.039</v>
+        <v>3.614</v>
       </c>
     </row>
     <row r="5">
@@ -527,31 +527,31 @@
         <v>2012</v>
       </c>
       <c r="C5" t="n">
-        <v>2.93</v>
+        <v>4.246</v>
       </c>
       <c r="D5" t="n">
-        <v>3.259</v>
+        <v>3.419</v>
       </c>
       <c r="E5" t="n">
-        <v>3.165</v>
+        <v>3.801</v>
       </c>
       <c r="F5" t="n">
-        <v>3.528</v>
+        <v>4.096</v>
       </c>
       <c r="G5" t="n">
-        <v>4.112</v>
+        <v>4.144</v>
       </c>
       <c r="H5" t="n">
-        <v>3.252</v>
+        <v>4.306</v>
       </c>
       <c r="I5" t="n">
-        <v>3.68</v>
+        <v>4.369</v>
       </c>
       <c r="J5" t="n">
-        <v>3.885</v>
+        <v>4.838</v>
       </c>
       <c r="K5" t="n">
-        <v>4.023</v>
+        <v>3.621</v>
       </c>
     </row>
     <row r="6">
@@ -562,31 +562,31 @@
         <v>2013</v>
       </c>
       <c r="C6" t="n">
-        <v>2.951</v>
+        <v>4.3</v>
       </c>
       <c r="D6" t="n">
-        <v>3.24</v>
+        <v>3.412</v>
       </c>
       <c r="E6" t="n">
-        <v>3.155</v>
+        <v>3.779</v>
       </c>
       <c r="F6" t="n">
-        <v>3.531</v>
+        <v>4.106</v>
       </c>
       <c r="G6" t="n">
-        <v>4.129</v>
+        <v>4.147</v>
       </c>
       <c r="H6" t="n">
-        <v>3.296</v>
+        <v>4.302</v>
       </c>
       <c r="I6" t="n">
-        <v>3.61</v>
+        <v>4.479</v>
       </c>
       <c r="J6" t="n">
-        <v>3.933</v>
+        <v>4.758</v>
       </c>
       <c r="K6" t="n">
-        <v>4.016</v>
+        <v>3.625</v>
       </c>
     </row>
     <row r="7">
@@ -597,31 +597,31 @@
         <v>2014</v>
       </c>
       <c r="C7" t="n">
-        <v>2.958</v>
+        <v>4.31</v>
       </c>
       <c r="D7" t="n">
-        <v>3.22</v>
+        <v>3.393</v>
       </c>
       <c r="E7" t="n">
-        <v>3.133</v>
+        <v>3.746</v>
       </c>
       <c r="F7" t="n">
-        <v>3.599</v>
+        <v>4.071</v>
       </c>
       <c r="G7" t="n">
-        <v>4.173</v>
+        <v>4.134</v>
       </c>
       <c r="H7" t="n">
-        <v>3.841</v>
+        <v>4.267</v>
       </c>
       <c r="I7" t="n">
-        <v>3.591</v>
+        <v>4.398</v>
       </c>
       <c r="J7" t="n">
-        <v>3.885</v>
+        <v>4.662</v>
       </c>
       <c r="K7" t="n">
-        <v>3.998</v>
+        <v>3.614</v>
       </c>
     </row>
     <row r="8">
@@ -632,31 +632,31 @@
         <v>2015</v>
       </c>
       <c r="C8" t="n">
-        <v>2.937</v>
+        <v>4.282</v>
       </c>
       <c r="D8" t="n">
-        <v>3.201</v>
+        <v>3.382</v>
       </c>
       <c r="E8" t="n">
-        <v>3.005</v>
+        <v>3.764</v>
       </c>
       <c r="F8" t="n">
-        <v>3.49</v>
+        <v>4.078</v>
       </c>
       <c r="G8" t="n">
-        <v>4.197</v>
+        <v>4.135</v>
       </c>
       <c r="H8" t="n">
-        <v>3.289</v>
+        <v>4.052</v>
       </c>
       <c r="I8" t="n">
-        <v>3.53</v>
+        <v>4.514</v>
       </c>
       <c r="J8" t="n">
-        <v>3.853</v>
+        <v>4.902</v>
       </c>
       <c r="K8" t="n">
-        <v>3.981</v>
+        <v>3.59</v>
       </c>
     </row>
     <row r="9">
@@ -667,31 +667,31 @@
         <v>2016</v>
       </c>
       <c r="C9" t="n">
-        <v>2.911</v>
+        <v>4.266</v>
       </c>
       <c r="D9" t="n">
-        <v>3.182</v>
+        <v>3.382</v>
       </c>
       <c r="E9" t="n">
-        <v>2.953</v>
+        <v>3.459</v>
       </c>
       <c r="F9" t="n">
-        <v>3.475</v>
+        <v>4.053</v>
       </c>
       <c r="G9" t="n">
-        <v>4.201</v>
+        <v>4.071</v>
       </c>
       <c r="H9" t="n">
-        <v>3.246</v>
+        <v>4.13</v>
       </c>
       <c r="I9" t="n">
-        <v>3.531</v>
+        <v>4.524</v>
       </c>
       <c r="J9" t="n">
-        <v>3.885</v>
+        <v>4.95</v>
       </c>
       <c r="K9" t="n">
-        <v>3.965</v>
+        <v>3.597</v>
       </c>
     </row>
     <row r="10">
@@ -702,31 +702,31 @@
         <v>2017</v>
       </c>
       <c r="C10" t="n">
-        <v>2.867</v>
+        <v>4.301</v>
       </c>
       <c r="D10" t="n">
-        <v>3.165</v>
+        <v>3.362</v>
       </c>
       <c r="E10" t="n">
-        <v>2.89</v>
+        <v>3.286</v>
       </c>
       <c r="F10" t="n">
-        <v>3.443</v>
+        <v>4.027</v>
       </c>
       <c r="G10" t="n">
-        <v>4.211</v>
+        <v>4.112</v>
       </c>
       <c r="H10" t="n">
-        <v>3.235</v>
+        <v>4.124</v>
       </c>
       <c r="I10" t="n">
-        <v>3.44</v>
+        <v>4.48</v>
       </c>
       <c r="J10" t="n">
-        <v>3.853</v>
+        <v>4.95</v>
       </c>
       <c r="K10" t="n">
-        <v>3.958</v>
+        <v>3.535</v>
       </c>
     </row>
     <row r="11">
@@ -737,31 +737,31 @@
         <v>2018</v>
       </c>
       <c r="C11" t="n">
-        <v>2.802</v>
+        <v>4.266</v>
       </c>
       <c r="D11" t="n">
-        <v>3.147</v>
+        <v>3.343</v>
       </c>
       <c r="E11" t="n">
-        <v>2.876</v>
+        <v>3.336</v>
       </c>
       <c r="F11" t="n">
-        <v>3.42</v>
+        <v>4.007</v>
       </c>
       <c r="G11" t="n">
-        <v>4.186</v>
+        <v>4.093</v>
       </c>
       <c r="H11" t="n">
-        <v>3.251</v>
+        <v>4.152</v>
       </c>
       <c r="I11" t="n">
-        <v>3.343</v>
+        <v>4.411</v>
       </c>
       <c r="J11" t="n">
-        <v>3.901</v>
+        <v>4.902</v>
       </c>
       <c r="K11" t="n">
-        <v>3.94</v>
+        <v>3.489</v>
       </c>
     </row>
     <row r="12">
@@ -772,31 +772,31 @@
         <v>2019</v>
       </c>
       <c r="C12" t="n">
-        <v>2.672</v>
+        <v>4.199</v>
       </c>
       <c r="D12" t="n">
-        <v>3.094</v>
+        <v>3.337</v>
       </c>
       <c r="E12" t="n">
-        <v>3.007</v>
+        <v>3.41</v>
       </c>
       <c r="F12" t="n">
-        <v>3.426</v>
+        <v>4.006</v>
       </c>
       <c r="G12" t="n">
-        <v>4.189</v>
+        <v>4.117</v>
       </c>
       <c r="H12" t="n">
-        <v>3.294</v>
+        <v>4.153</v>
       </c>
       <c r="I12" t="n">
-        <v>3.444</v>
+        <v>4.444</v>
       </c>
       <c r="J12" t="n">
-        <v>3.853</v>
+        <v>4.854</v>
       </c>
       <c r="K12" t="n">
-        <v>3.941</v>
+        <v>3.478</v>
       </c>
     </row>
     <row r="13">
@@ -807,31 +807,31 @@
         <v>2020</v>
       </c>
       <c r="C13" t="n">
-        <v>2.806</v>
+        <v>4.142</v>
       </c>
       <c r="D13" t="n">
-        <v>3.072</v>
+        <v>3.326</v>
       </c>
       <c r="E13" t="n">
-        <v>2.81</v>
+        <v>3.467</v>
       </c>
       <c r="F13" t="n">
-        <v>3.423</v>
+        <v>4.014</v>
       </c>
       <c r="G13" t="n">
-        <v>4.201</v>
+        <v>4.193</v>
       </c>
       <c r="H13" t="n">
-        <v>3.27</v>
+        <v>4.158</v>
       </c>
       <c r="I13" t="n">
-        <v>3.412</v>
+        <v>4.425</v>
       </c>
       <c r="J13" t="n">
-        <v>3.933</v>
+        <v>4.806</v>
       </c>
       <c r="K13" t="n">
-        <v>3.951</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="14">
@@ -842,31 +842,31 @@
         <v>2021</v>
       </c>
       <c r="C14" t="n">
-        <v>2.879</v>
+        <v>4.096</v>
       </c>
       <c r="D14" t="n">
-        <v>3.231</v>
+        <v>3.315</v>
       </c>
       <c r="E14" t="n">
-        <v>2.877</v>
+        <v>3.516</v>
       </c>
       <c r="F14" t="n">
-        <v>3.462</v>
+        <v>3.992</v>
       </c>
       <c r="G14" t="n">
-        <v>4.2</v>
+        <v>4.123</v>
       </c>
       <c r="H14" t="n">
-        <v>3.284</v>
+        <v>4.147</v>
       </c>
       <c r="I14" t="n">
-        <v>3.4</v>
+        <v>4.397</v>
       </c>
       <c r="J14" t="n">
-        <v>3.949</v>
+        <v>4.758</v>
       </c>
       <c r="K14" t="n">
-        <v>3.951</v>
+        <v>3.543</v>
       </c>
     </row>
     <row r="15">
@@ -877,31 +877,31 @@
         <v>2022</v>
       </c>
       <c r="C15" t="n">
-        <v>2.956</v>
+        <v>4.059</v>
       </c>
       <c r="D15" t="n">
-        <v>3.231</v>
+        <v>3.315</v>
       </c>
       <c r="E15" t="n">
-        <v>2.877</v>
+        <v>3.516</v>
       </c>
       <c r="F15" t="n">
-        <v>3.603</v>
+        <v>3.982</v>
       </c>
       <c r="G15" t="n">
-        <v>4.2</v>
+        <v>4.123</v>
       </c>
       <c r="H15" t="n">
-        <v>3.847</v>
+        <v>4.147</v>
       </c>
       <c r="I15" t="n">
-        <v>3.4</v>
+        <v>4.397</v>
       </c>
       <c r="J15" t="n">
-        <v>4.403</v>
+        <v>4.71</v>
       </c>
       <c r="K15" t="n">
-        <v>3.951</v>
+        <v>3.543</v>
       </c>
     </row>
   </sheetData>

--- a/04_outputs/PPI_Pillars.xlsx
+++ b/04_outputs/PPI_Pillars.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">High Levels of Human Capital</t>
   </si>
   <si>
-    <t xml:space="preserve">Iraq</t>
+    <t xml:space="preserve">Burkina Faso</t>
   </si>
 </sst>
 </file>
@@ -422,31 +422,31 @@
         <v>2009</v>
       </c>
       <c r="C2" t="n">
-        <v>4.227</v>
+        <v>3.085</v>
       </c>
       <c r="D2" t="n">
-        <v>3.445</v>
+        <v>3.351</v>
       </c>
       <c r="E2" t="n">
-        <v>3.774</v>
+        <v>3.024</v>
       </c>
       <c r="F2" t="n">
-        <v>4.124</v>
+        <v>3.551</v>
       </c>
       <c r="G2" t="n">
-        <v>4.077</v>
+        <v>4.158</v>
       </c>
       <c r="H2" t="n">
-        <v>4.387</v>
+        <v>3.177</v>
       </c>
       <c r="I2" t="n">
-        <v>4.396</v>
+        <v>3.677</v>
       </c>
       <c r="J2" t="n">
-        <v>4.997</v>
+        <v>3.932</v>
       </c>
       <c r="K2" t="n">
-        <v>3.659</v>
+        <v>4.079</v>
       </c>
     </row>
     <row r="3">
@@ -457,31 +457,31 @@
         <v>2010</v>
       </c>
       <c r="C3" t="n">
-        <v>4.204</v>
+        <v>3.032</v>
       </c>
       <c r="D3" t="n">
-        <v>3.445</v>
+        <v>3.305</v>
       </c>
       <c r="E3" t="n">
-        <v>3.853</v>
+        <v>3.122</v>
       </c>
       <c r="F3" t="n">
-        <v>4.118</v>
+        <v>3.545</v>
       </c>
       <c r="G3" t="n">
-        <v>4.097</v>
+        <v>4.162</v>
       </c>
       <c r="H3" t="n">
-        <v>4.364</v>
+        <v>3.165</v>
       </c>
       <c r="I3" t="n">
-        <v>4.407</v>
+        <v>3.681</v>
       </c>
       <c r="J3" t="n">
-        <v>4.917</v>
+        <v>3.916</v>
       </c>
       <c r="K3" t="n">
-        <v>3.636</v>
+        <v>4.061</v>
       </c>
     </row>
     <row r="4">
@@ -492,31 +492,31 @@
         <v>2011</v>
       </c>
       <c r="C4" t="n">
-        <v>4.162</v>
+        <v>2.975</v>
       </c>
       <c r="D4" t="n">
-        <v>3.431</v>
+        <v>3.28</v>
       </c>
       <c r="E4" t="n">
-        <v>3.814</v>
+        <v>3.145</v>
       </c>
       <c r="F4" t="n">
-        <v>4.089</v>
+        <v>3.537</v>
       </c>
       <c r="G4" t="n">
-        <v>4.108</v>
+        <v>4.157</v>
       </c>
       <c r="H4" t="n">
-        <v>4.307</v>
+        <v>3.209</v>
       </c>
       <c r="I4" t="n">
-        <v>4.373</v>
+        <v>3.646</v>
       </c>
       <c r="J4" t="n">
-        <v>4.885</v>
+        <v>3.933</v>
       </c>
       <c r="K4" t="n">
-        <v>3.614</v>
+        <v>4.039</v>
       </c>
     </row>
     <row r="5">
@@ -527,31 +527,31 @@
         <v>2012</v>
       </c>
       <c r="C5" t="n">
-        <v>4.246</v>
+        <v>2.93</v>
       </c>
       <c r="D5" t="n">
-        <v>3.419</v>
+        <v>3.259</v>
       </c>
       <c r="E5" t="n">
-        <v>3.801</v>
+        <v>3.165</v>
       </c>
       <c r="F5" t="n">
-        <v>4.096</v>
+        <v>3.528</v>
       </c>
       <c r="G5" t="n">
-        <v>4.144</v>
+        <v>4.112</v>
       </c>
       <c r="H5" t="n">
-        <v>4.306</v>
+        <v>3.252</v>
       </c>
       <c r="I5" t="n">
-        <v>4.369</v>
+        <v>3.68</v>
       </c>
       <c r="J5" t="n">
-        <v>4.838</v>
+        <v>3.885</v>
       </c>
       <c r="K5" t="n">
-        <v>3.621</v>
+        <v>4.023</v>
       </c>
     </row>
     <row r="6">
@@ -562,31 +562,31 @@
         <v>2013</v>
       </c>
       <c r="C6" t="n">
-        <v>4.3</v>
+        <v>2.951</v>
       </c>
       <c r="D6" t="n">
-        <v>3.412</v>
+        <v>3.24</v>
       </c>
       <c r="E6" t="n">
-        <v>3.779</v>
+        <v>3.155</v>
       </c>
       <c r="F6" t="n">
-        <v>4.106</v>
+        <v>3.531</v>
       </c>
       <c r="G6" t="n">
-        <v>4.147</v>
+        <v>4.129</v>
       </c>
       <c r="H6" t="n">
-        <v>4.302</v>
+        <v>3.296</v>
       </c>
       <c r="I6" t="n">
-        <v>4.479</v>
+        <v>3.61</v>
       </c>
       <c r="J6" t="n">
-        <v>4.758</v>
+        <v>3.933</v>
       </c>
       <c r="K6" t="n">
-        <v>3.625</v>
+        <v>4.016</v>
       </c>
     </row>
     <row r="7">
@@ -597,31 +597,31 @@
         <v>2014</v>
       </c>
       <c r="C7" t="n">
-        <v>4.31</v>
+        <v>2.958</v>
       </c>
       <c r="D7" t="n">
-        <v>3.393</v>
+        <v>3.22</v>
       </c>
       <c r="E7" t="n">
-        <v>3.746</v>
+        <v>3.133</v>
       </c>
       <c r="F7" t="n">
-        <v>4.071</v>
+        <v>3.599</v>
       </c>
       <c r="G7" t="n">
-        <v>4.134</v>
+        <v>4.173</v>
       </c>
       <c r="H7" t="n">
-        <v>4.267</v>
+        <v>3.841</v>
       </c>
       <c r="I7" t="n">
-        <v>4.398</v>
+        <v>3.591</v>
       </c>
       <c r="J7" t="n">
-        <v>4.662</v>
+        <v>3.885</v>
       </c>
       <c r="K7" t="n">
-        <v>3.614</v>
+        <v>3.998</v>
       </c>
     </row>
     <row r="8">
@@ -632,31 +632,31 @@
         <v>2015</v>
       </c>
       <c r="C8" t="n">
-        <v>4.282</v>
+        <v>2.937</v>
       </c>
       <c r="D8" t="n">
-        <v>3.382</v>
+        <v>3.201</v>
       </c>
       <c r="E8" t="n">
-        <v>3.764</v>
+        <v>3.005</v>
       </c>
       <c r="F8" t="n">
-        <v>4.078</v>
+        <v>3.49</v>
       </c>
       <c r="G8" t="n">
-        <v>4.135</v>
+        <v>4.197</v>
       </c>
       <c r="H8" t="n">
-        <v>4.052</v>
+        <v>3.289</v>
       </c>
       <c r="I8" t="n">
-        <v>4.514</v>
+        <v>3.53</v>
       </c>
       <c r="J8" t="n">
-        <v>4.902</v>
+        <v>3.853</v>
       </c>
       <c r="K8" t="n">
-        <v>3.59</v>
+        <v>3.981</v>
       </c>
     </row>
     <row r="9">
@@ -667,31 +667,31 @@
         <v>2016</v>
       </c>
       <c r="C9" t="n">
-        <v>4.266</v>
+        <v>2.911</v>
       </c>
       <c r="D9" t="n">
-        <v>3.382</v>
+        <v>3.182</v>
       </c>
       <c r="E9" t="n">
-        <v>3.459</v>
+        <v>2.953</v>
       </c>
       <c r="F9" t="n">
-        <v>4.053</v>
+        <v>3.475</v>
       </c>
       <c r="G9" t="n">
-        <v>4.071</v>
+        <v>4.201</v>
       </c>
       <c r="H9" t="n">
-        <v>4.13</v>
+        <v>3.246</v>
       </c>
       <c r="I9" t="n">
-        <v>4.524</v>
+        <v>3.531</v>
       </c>
       <c r="J9" t="n">
-        <v>4.95</v>
+        <v>3.885</v>
       </c>
       <c r="K9" t="n">
-        <v>3.597</v>
+        <v>3.965</v>
       </c>
     </row>
     <row r="10">
@@ -702,31 +702,31 @@
         <v>2017</v>
       </c>
       <c r="C10" t="n">
-        <v>4.301</v>
+        <v>2.867</v>
       </c>
       <c r="D10" t="n">
-        <v>3.362</v>
+        <v>3.165</v>
       </c>
       <c r="E10" t="n">
-        <v>3.286</v>
+        <v>2.89</v>
       </c>
       <c r="F10" t="n">
-        <v>4.027</v>
+        <v>3.443</v>
       </c>
       <c r="G10" t="n">
-        <v>4.112</v>
+        <v>4.211</v>
       </c>
       <c r="H10" t="n">
-        <v>4.124</v>
+        <v>3.235</v>
       </c>
       <c r="I10" t="n">
-        <v>4.48</v>
+        <v>3.44</v>
       </c>
       <c r="J10" t="n">
-        <v>4.95</v>
+        <v>3.853</v>
       </c>
       <c r="K10" t="n">
-        <v>3.535</v>
+        <v>3.958</v>
       </c>
     </row>
     <row r="11">
@@ -737,31 +737,31 @@
         <v>2018</v>
       </c>
       <c r="C11" t="n">
-        <v>4.266</v>
+        <v>2.802</v>
       </c>
       <c r="D11" t="n">
+        <v>3.147</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2.876</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4.186</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.251</v>
+      </c>
+      <c r="I11" t="n">
         <v>3.343</v>
       </c>
-      <c r="E11" t="n">
-        <v>3.336</v>
-      </c>
-      <c r="F11" t="n">
-        <v>4.007</v>
-      </c>
-      <c r="G11" t="n">
-        <v>4.093</v>
-      </c>
-      <c r="H11" t="n">
-        <v>4.152</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4.411</v>
-      </c>
       <c r="J11" t="n">
-        <v>4.902</v>
+        <v>3.901</v>
       </c>
       <c r="K11" t="n">
-        <v>3.489</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="12">
@@ -772,31 +772,31 @@
         <v>2019</v>
       </c>
       <c r="C12" t="n">
-        <v>4.199</v>
+        <v>2.672</v>
       </c>
       <c r="D12" t="n">
-        <v>3.337</v>
+        <v>3.094</v>
       </c>
       <c r="E12" t="n">
-        <v>3.41</v>
+        <v>3.007</v>
       </c>
       <c r="F12" t="n">
-        <v>4.006</v>
+        <v>3.426</v>
       </c>
       <c r="G12" t="n">
-        <v>4.117</v>
+        <v>4.189</v>
       </c>
       <c r="H12" t="n">
-        <v>4.153</v>
+        <v>3.294</v>
       </c>
       <c r="I12" t="n">
-        <v>4.444</v>
+        <v>3.444</v>
       </c>
       <c r="J12" t="n">
-        <v>4.854</v>
+        <v>3.853</v>
       </c>
       <c r="K12" t="n">
-        <v>3.478</v>
+        <v>3.941</v>
       </c>
     </row>
     <row r="13">
@@ -807,31 +807,31 @@
         <v>2020</v>
       </c>
       <c r="C13" t="n">
-        <v>4.142</v>
+        <v>2.806</v>
       </c>
       <c r="D13" t="n">
-        <v>3.326</v>
+        <v>3.072</v>
       </c>
       <c r="E13" t="n">
-        <v>3.467</v>
+        <v>2.81</v>
       </c>
       <c r="F13" t="n">
-        <v>4.014</v>
+        <v>3.423</v>
       </c>
       <c r="G13" t="n">
-        <v>4.193</v>
+        <v>4.201</v>
       </c>
       <c r="H13" t="n">
-        <v>4.158</v>
+        <v>3.27</v>
       </c>
       <c r="I13" t="n">
-        <v>4.425</v>
+        <v>3.412</v>
       </c>
       <c r="J13" t="n">
-        <v>4.806</v>
+        <v>3.933</v>
       </c>
       <c r="K13" t="n">
-        <v>3.55</v>
+        <v>3.951</v>
       </c>
     </row>
     <row r="14">
@@ -842,31 +842,31 @@
         <v>2021</v>
       </c>
       <c r="C14" t="n">
-        <v>4.096</v>
+        <v>2.879</v>
       </c>
       <c r="D14" t="n">
-        <v>3.315</v>
+        <v>3.231</v>
       </c>
       <c r="E14" t="n">
-        <v>3.516</v>
+        <v>2.877</v>
       </c>
       <c r="F14" t="n">
-        <v>3.992</v>
+        <v>3.462</v>
       </c>
       <c r="G14" t="n">
-        <v>4.123</v>
+        <v>4.2</v>
       </c>
       <c r="H14" t="n">
-        <v>4.147</v>
+        <v>3.284</v>
       </c>
       <c r="I14" t="n">
-        <v>4.397</v>
+        <v>3.4</v>
       </c>
       <c r="J14" t="n">
-        <v>4.758</v>
+        <v>3.949</v>
       </c>
       <c r="K14" t="n">
-        <v>3.543</v>
+        <v>3.951</v>
       </c>
     </row>
     <row r="15">
@@ -877,31 +877,31 @@
         <v>2022</v>
       </c>
       <c r="C15" t="n">
-        <v>4.059</v>
+        <v>2.956</v>
       </c>
       <c r="D15" t="n">
-        <v>3.315</v>
+        <v>3.231</v>
       </c>
       <c r="E15" t="n">
-        <v>3.516</v>
+        <v>2.877</v>
       </c>
       <c r="F15" t="n">
-        <v>3.982</v>
+        <v>3.603</v>
       </c>
       <c r="G15" t="n">
-        <v>4.123</v>
+        <v>4.2</v>
       </c>
       <c r="H15" t="n">
-        <v>4.147</v>
+        <v>3.847</v>
       </c>
       <c r="I15" t="n">
-        <v>4.397</v>
+        <v>3.4</v>
       </c>
       <c r="J15" t="n">
-        <v>4.71</v>
+        <v>4.403</v>
       </c>
       <c r="K15" t="n">
-        <v>3.543</v>
+        <v>3.951</v>
       </c>
     </row>
   </sheetData>

--- a/04_outputs/PPI_Pillars.xlsx
+++ b/04_outputs/PPI_Pillars.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">High Levels of Human Capital</t>
   </si>
   <si>
-    <t xml:space="preserve">Burkina Faso</t>
+    <t xml:space="preserve">Pakistan</t>
   </si>
 </sst>
 </file>
@@ -422,31 +422,31 @@
         <v>2009</v>
       </c>
       <c r="C2" t="n">
-        <v>3.085</v>
+        <v>3.944</v>
       </c>
       <c r="D2" t="n">
-        <v>3.351</v>
+        <v>3.888</v>
       </c>
       <c r="E2" t="n">
-        <v>3.024</v>
+        <v>3.609</v>
       </c>
       <c r="F2" t="n">
-        <v>3.551</v>
+        <v>3.925</v>
       </c>
       <c r="G2" t="n">
-        <v>4.158</v>
+        <v>4.079</v>
       </c>
       <c r="H2" t="n">
-        <v>3.177</v>
+        <v>3.437</v>
       </c>
       <c r="I2" t="n">
-        <v>3.677</v>
+        <v>4.33</v>
       </c>
       <c r="J2" t="n">
-        <v>3.932</v>
+        <v>4.547</v>
       </c>
       <c r="K2" t="n">
-        <v>4.079</v>
+        <v>3.609</v>
       </c>
     </row>
     <row r="3">
@@ -457,31 +457,31 @@
         <v>2010</v>
       </c>
       <c r="C3" t="n">
-        <v>3.032</v>
+        <v>3.826</v>
       </c>
       <c r="D3" t="n">
-        <v>3.305</v>
+        <v>3.868</v>
       </c>
       <c r="E3" t="n">
-        <v>3.122</v>
+        <v>3.659</v>
       </c>
       <c r="F3" t="n">
-        <v>3.545</v>
+        <v>3.904</v>
       </c>
       <c r="G3" t="n">
-        <v>4.162</v>
+        <v>4.146</v>
       </c>
       <c r="H3" t="n">
-        <v>3.165</v>
+        <v>3.393</v>
       </c>
       <c r="I3" t="n">
-        <v>3.681</v>
+        <v>4.293</v>
       </c>
       <c r="J3" t="n">
-        <v>3.916</v>
+        <v>4.515</v>
       </c>
       <c r="K3" t="n">
-        <v>4.061</v>
+        <v>3.593</v>
       </c>
     </row>
     <row r="4">
@@ -492,31 +492,31 @@
         <v>2011</v>
       </c>
       <c r="C4" t="n">
-        <v>2.975</v>
+        <v>3.81</v>
       </c>
       <c r="D4" t="n">
-        <v>3.28</v>
+        <v>3.854</v>
       </c>
       <c r="E4" t="n">
-        <v>3.145</v>
+        <v>3.641</v>
       </c>
       <c r="F4" t="n">
-        <v>3.537</v>
+        <v>3.904</v>
       </c>
       <c r="G4" t="n">
-        <v>4.157</v>
+        <v>4.163</v>
       </c>
       <c r="H4" t="n">
-        <v>3.209</v>
+        <v>3.465</v>
       </c>
       <c r="I4" t="n">
-        <v>3.646</v>
+        <v>4.235</v>
       </c>
       <c r="J4" t="n">
-        <v>3.933</v>
+        <v>4.515</v>
       </c>
       <c r="K4" t="n">
-        <v>4.039</v>
+        <v>3.603</v>
       </c>
     </row>
     <row r="5">
@@ -527,31 +527,31 @@
         <v>2012</v>
       </c>
       <c r="C5" t="n">
-        <v>2.93</v>
+        <v>3.821</v>
       </c>
       <c r="D5" t="n">
-        <v>3.259</v>
+        <v>3.841</v>
       </c>
       <c r="E5" t="n">
-        <v>3.165</v>
+        <v>3.672</v>
       </c>
       <c r="F5" t="n">
-        <v>3.528</v>
+        <v>3.906</v>
       </c>
       <c r="G5" t="n">
-        <v>4.112</v>
+        <v>4.187</v>
       </c>
       <c r="H5" t="n">
-        <v>3.252</v>
+        <v>3.442</v>
       </c>
       <c r="I5" t="n">
-        <v>3.68</v>
+        <v>4.23</v>
       </c>
       <c r="J5" t="n">
-        <v>3.885</v>
+        <v>4.531</v>
       </c>
       <c r="K5" t="n">
-        <v>4.023</v>
+        <v>3.589</v>
       </c>
     </row>
     <row r="6">
@@ -562,31 +562,31 @@
         <v>2013</v>
       </c>
       <c r="C6" t="n">
-        <v>2.951</v>
+        <v>3.88</v>
       </c>
       <c r="D6" t="n">
-        <v>3.24</v>
+        <v>3.827</v>
       </c>
       <c r="E6" t="n">
-        <v>3.155</v>
+        <v>3.703</v>
       </c>
       <c r="F6" t="n">
-        <v>3.531</v>
+        <v>3.918</v>
       </c>
       <c r="G6" t="n">
-        <v>4.129</v>
+        <v>4.242</v>
       </c>
       <c r="H6" t="n">
-        <v>3.296</v>
+        <v>3.437</v>
       </c>
       <c r="I6" t="n">
-        <v>3.61</v>
+        <v>4.198</v>
       </c>
       <c r="J6" t="n">
-        <v>3.933</v>
+        <v>4.563</v>
       </c>
       <c r="K6" t="n">
-        <v>4.016</v>
+        <v>3.566</v>
       </c>
     </row>
     <row r="7">
@@ -597,31 +597,31 @@
         <v>2014</v>
       </c>
       <c r="C7" t="n">
-        <v>2.958</v>
+        <v>3.906</v>
       </c>
       <c r="D7" t="n">
-        <v>3.22</v>
+        <v>3.813</v>
       </c>
       <c r="E7" t="n">
-        <v>3.133</v>
+        <v>3.637</v>
       </c>
       <c r="F7" t="n">
-        <v>3.599</v>
+        <v>3.848</v>
       </c>
       <c r="G7" t="n">
-        <v>4.173</v>
+        <v>4.232</v>
       </c>
       <c r="H7" t="n">
-        <v>3.841</v>
+        <v>3.112</v>
       </c>
       <c r="I7" t="n">
-        <v>3.591</v>
+        <v>4.128</v>
       </c>
       <c r="J7" t="n">
-        <v>3.885</v>
+        <v>4.515</v>
       </c>
       <c r="K7" t="n">
-        <v>3.998</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="8">
@@ -632,31 +632,31 @@
         <v>2015</v>
       </c>
       <c r="C8" t="n">
-        <v>2.937</v>
+        <v>3.881</v>
       </c>
       <c r="D8" t="n">
-        <v>3.201</v>
+        <v>3.798</v>
       </c>
       <c r="E8" t="n">
-        <v>3.005</v>
+        <v>3.631</v>
       </c>
       <c r="F8" t="n">
-        <v>3.49</v>
+        <v>3.812</v>
       </c>
       <c r="G8" t="n">
-        <v>4.197</v>
+        <v>4.108</v>
       </c>
       <c r="H8" t="n">
-        <v>3.289</v>
+        <v>3.088</v>
       </c>
       <c r="I8" t="n">
-        <v>3.53</v>
+        <v>4.075</v>
       </c>
       <c r="J8" t="n">
-        <v>3.853</v>
+        <v>4.515</v>
       </c>
       <c r="K8" t="n">
-        <v>3.981</v>
+        <v>3.517</v>
       </c>
     </row>
     <row r="9">
@@ -667,31 +667,31 @@
         <v>2016</v>
       </c>
       <c r="C9" t="n">
-        <v>2.911</v>
+        <v>3.841</v>
       </c>
       <c r="D9" t="n">
-        <v>3.182</v>
+        <v>3.784</v>
       </c>
       <c r="E9" t="n">
-        <v>2.953</v>
+        <v>3.583</v>
       </c>
       <c r="F9" t="n">
-        <v>3.475</v>
+        <v>3.809</v>
       </c>
       <c r="G9" t="n">
-        <v>4.201</v>
+        <v>4.13</v>
       </c>
       <c r="H9" t="n">
-        <v>3.246</v>
+        <v>3.098</v>
       </c>
       <c r="I9" t="n">
-        <v>3.531</v>
+        <v>4.075</v>
       </c>
       <c r="J9" t="n">
-        <v>3.885</v>
+        <v>4.563</v>
       </c>
       <c r="K9" t="n">
-        <v>3.965</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="10">
@@ -702,31 +702,31 @@
         <v>2017</v>
       </c>
       <c r="C10" t="n">
-        <v>2.867</v>
+        <v>3.876</v>
       </c>
       <c r="D10" t="n">
-        <v>3.165</v>
+        <v>3.768</v>
       </c>
       <c r="E10" t="n">
-        <v>2.89</v>
+        <v>3.536</v>
       </c>
       <c r="F10" t="n">
-        <v>3.443</v>
+        <v>3.788</v>
       </c>
       <c r="G10" t="n">
-        <v>4.211</v>
+        <v>4.112</v>
       </c>
       <c r="H10" t="n">
-        <v>3.235</v>
+        <v>3.055</v>
       </c>
       <c r="I10" t="n">
-        <v>3.44</v>
+        <v>4.044</v>
       </c>
       <c r="J10" t="n">
-        <v>3.853</v>
+        <v>4.531</v>
       </c>
       <c r="K10" t="n">
-        <v>3.958</v>
+        <v>3.495</v>
       </c>
     </row>
     <row r="11">
@@ -737,31 +737,31 @@
         <v>2018</v>
       </c>
       <c r="C11" t="n">
-        <v>2.802</v>
+        <v>3.835</v>
       </c>
       <c r="D11" t="n">
-        <v>3.147</v>
+        <v>3.754</v>
       </c>
       <c r="E11" t="n">
-        <v>2.876</v>
+        <v>3.615</v>
       </c>
       <c r="F11" t="n">
-        <v>3.42</v>
+        <v>3.792</v>
       </c>
       <c r="G11" t="n">
-        <v>4.186</v>
+        <v>4.122</v>
       </c>
       <c r="H11" t="n">
-        <v>3.251</v>
+        <v>3.048</v>
       </c>
       <c r="I11" t="n">
-        <v>3.343</v>
+        <v>4.104</v>
       </c>
       <c r="J11" t="n">
-        <v>3.901</v>
+        <v>4.483</v>
       </c>
       <c r="K11" t="n">
-        <v>3.94</v>
+        <v>3.488</v>
       </c>
     </row>
     <row r="12">
@@ -772,31 +772,31 @@
         <v>2019</v>
       </c>
       <c r="C12" t="n">
-        <v>2.672</v>
+        <v>3.776</v>
       </c>
       <c r="D12" t="n">
-        <v>3.094</v>
+        <v>3.756</v>
       </c>
       <c r="E12" t="n">
-        <v>3.007</v>
+        <v>3.617</v>
       </c>
       <c r="F12" t="n">
-        <v>3.426</v>
+        <v>3.79</v>
       </c>
       <c r="G12" t="n">
-        <v>4.189</v>
+        <v>4.129</v>
       </c>
       <c r="H12" t="n">
-        <v>3.294</v>
+        <v>3.064</v>
       </c>
       <c r="I12" t="n">
-        <v>3.444</v>
+        <v>4.187</v>
       </c>
       <c r="J12" t="n">
-        <v>3.853</v>
+        <v>4.434</v>
       </c>
       <c r="K12" t="n">
-        <v>3.941</v>
+        <v>3.452</v>
       </c>
     </row>
     <row r="13">
@@ -807,31 +807,31 @@
         <v>2020</v>
       </c>
       <c r="C13" t="n">
-        <v>2.806</v>
+        <v>3.567</v>
       </c>
       <c r="D13" t="n">
-        <v>3.072</v>
+        <v>3.681</v>
       </c>
       <c r="E13" t="n">
-        <v>2.81</v>
+        <v>3.461</v>
       </c>
       <c r="F13" t="n">
-        <v>3.423</v>
+        <v>3.747</v>
       </c>
       <c r="G13" t="n">
-        <v>4.201</v>
+        <v>4.151</v>
       </c>
       <c r="H13" t="n">
-        <v>3.27</v>
+        <v>3.311</v>
       </c>
       <c r="I13" t="n">
-        <v>3.412</v>
+        <v>3.982</v>
       </c>
       <c r="J13" t="n">
-        <v>3.933</v>
+        <v>4.386</v>
       </c>
       <c r="K13" t="n">
-        <v>3.951</v>
+        <v>3.513</v>
       </c>
     </row>
     <row r="14">
@@ -842,31 +842,31 @@
         <v>2021</v>
       </c>
       <c r="C14" t="n">
-        <v>2.879</v>
+        <v>3.513</v>
       </c>
       <c r="D14" t="n">
-        <v>3.231</v>
+        <v>3.667</v>
       </c>
       <c r="E14" t="n">
-        <v>2.877</v>
+        <v>3.476</v>
       </c>
       <c r="F14" t="n">
-        <v>3.462</v>
+        <v>3.729</v>
       </c>
       <c r="G14" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="H14" t="n">
-        <v>3.284</v>
+        <v>3.252</v>
       </c>
       <c r="I14" t="n">
-        <v>3.4</v>
+        <v>3.966</v>
       </c>
       <c r="J14" t="n">
-        <v>3.949</v>
+        <v>4.338</v>
       </c>
       <c r="K14" t="n">
-        <v>3.951</v>
+        <v>3.558</v>
       </c>
     </row>
     <row r="15">
@@ -877,31 +877,31 @@
         <v>2022</v>
       </c>
       <c r="C15" t="n">
-        <v>2.956</v>
+        <v>3.538</v>
       </c>
       <c r="D15" t="n">
-        <v>3.231</v>
+        <v>3.667</v>
       </c>
       <c r="E15" t="n">
-        <v>2.877</v>
+        <v>3.458</v>
       </c>
       <c r="F15" t="n">
-        <v>3.603</v>
+        <v>3.729</v>
       </c>
       <c r="G15" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="H15" t="n">
-        <v>3.847</v>
+        <v>3.252</v>
       </c>
       <c r="I15" t="n">
-        <v>3.4</v>
+        <v>3.957</v>
       </c>
       <c r="J15" t="n">
-        <v>4.403</v>
+        <v>4.338</v>
       </c>
       <c r="K15" t="n">
-        <v>3.951</v>
+        <v>3.558</v>
       </c>
     </row>
   </sheetData>

--- a/04_outputs/PPI_Pillars.xlsx
+++ b/04_outputs/PPI_Pillars.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">High Levels of Human Capital</t>
   </si>
   <si>
-    <t xml:space="preserve">Pakistan</t>
+    <t xml:space="preserve">Burkina Faso</t>
   </si>
 </sst>
 </file>
@@ -422,31 +422,31 @@
         <v>2009</v>
       </c>
       <c r="C2" t="n">
-        <v>3.944</v>
+        <v>3.085</v>
       </c>
       <c r="D2" t="n">
-        <v>3.888</v>
+        <v>3.351</v>
       </c>
       <c r="E2" t="n">
-        <v>3.609</v>
+        <v>3.024</v>
       </c>
       <c r="F2" t="n">
-        <v>3.925</v>
+        <v>3.551</v>
       </c>
       <c r="G2" t="n">
+        <v>4.158</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.677</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.932</v>
+      </c>
+      <c r="K2" t="n">
         <v>4.079</v>
-      </c>
-      <c r="H2" t="n">
-        <v>3.437</v>
-      </c>
-      <c r="I2" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4.547</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.609</v>
       </c>
     </row>
     <row r="3">
@@ -457,31 +457,31 @@
         <v>2010</v>
       </c>
       <c r="C3" t="n">
-        <v>3.826</v>
+        <v>3.032</v>
       </c>
       <c r="D3" t="n">
-        <v>3.868</v>
+        <v>3.305</v>
       </c>
       <c r="E3" t="n">
-        <v>3.659</v>
+        <v>3.122</v>
       </c>
       <c r="F3" t="n">
-        <v>3.904</v>
+        <v>3.545</v>
       </c>
       <c r="G3" t="n">
-        <v>4.146</v>
+        <v>4.162</v>
       </c>
       <c r="H3" t="n">
-        <v>3.393</v>
+        <v>3.165</v>
       </c>
       <c r="I3" t="n">
-        <v>4.293</v>
+        <v>3.681</v>
       </c>
       <c r="J3" t="n">
-        <v>4.515</v>
+        <v>3.916</v>
       </c>
       <c r="K3" t="n">
-        <v>3.593</v>
+        <v>4.061</v>
       </c>
     </row>
     <row r="4">
@@ -492,31 +492,31 @@
         <v>2011</v>
       </c>
       <c r="C4" t="n">
-        <v>3.81</v>
+        <v>2.975</v>
       </c>
       <c r="D4" t="n">
-        <v>3.854</v>
+        <v>3.28</v>
       </c>
       <c r="E4" t="n">
-        <v>3.641</v>
+        <v>3.145</v>
       </c>
       <c r="F4" t="n">
-        <v>3.904</v>
+        <v>3.537</v>
       </c>
       <c r="G4" t="n">
-        <v>4.163</v>
+        <v>4.157</v>
       </c>
       <c r="H4" t="n">
-        <v>3.465</v>
+        <v>3.209</v>
       </c>
       <c r="I4" t="n">
-        <v>4.235</v>
+        <v>3.646</v>
       </c>
       <c r="J4" t="n">
-        <v>4.515</v>
+        <v>3.933</v>
       </c>
       <c r="K4" t="n">
-        <v>3.603</v>
+        <v>4.039</v>
       </c>
     </row>
     <row r="5">
@@ -527,31 +527,31 @@
         <v>2012</v>
       </c>
       <c r="C5" t="n">
-        <v>3.821</v>
+        <v>2.93</v>
       </c>
       <c r="D5" t="n">
-        <v>3.841</v>
+        <v>3.259</v>
       </c>
       <c r="E5" t="n">
-        <v>3.672</v>
+        <v>3.165</v>
       </c>
       <c r="F5" t="n">
-        <v>3.906</v>
+        <v>3.528</v>
       </c>
       <c r="G5" t="n">
-        <v>4.187</v>
+        <v>4.112</v>
       </c>
       <c r="H5" t="n">
-        <v>3.442</v>
+        <v>3.252</v>
       </c>
       <c r="I5" t="n">
-        <v>4.23</v>
+        <v>3.68</v>
       </c>
       <c r="J5" t="n">
-        <v>4.531</v>
+        <v>3.885</v>
       </c>
       <c r="K5" t="n">
-        <v>3.589</v>
+        <v>4.023</v>
       </c>
     </row>
     <row r="6">
@@ -562,31 +562,31 @@
         <v>2013</v>
       </c>
       <c r="C6" t="n">
-        <v>3.88</v>
+        <v>2.951</v>
       </c>
       <c r="D6" t="n">
-        <v>3.827</v>
+        <v>3.24</v>
       </c>
       <c r="E6" t="n">
-        <v>3.703</v>
+        <v>3.155</v>
       </c>
       <c r="F6" t="n">
-        <v>3.918</v>
+        <v>3.531</v>
       </c>
       <c r="G6" t="n">
-        <v>4.242</v>
+        <v>4.129</v>
       </c>
       <c r="H6" t="n">
-        <v>3.437</v>
+        <v>3.296</v>
       </c>
       <c r="I6" t="n">
-        <v>4.198</v>
+        <v>3.61</v>
       </c>
       <c r="J6" t="n">
-        <v>4.563</v>
+        <v>3.933</v>
       </c>
       <c r="K6" t="n">
-        <v>3.566</v>
+        <v>4.016</v>
       </c>
     </row>
     <row r="7">
@@ -597,31 +597,31 @@
         <v>2014</v>
       </c>
       <c r="C7" t="n">
-        <v>3.906</v>
+        <v>2.958</v>
       </c>
       <c r="D7" t="n">
-        <v>3.813</v>
+        <v>3.22</v>
       </c>
       <c r="E7" t="n">
-        <v>3.637</v>
+        <v>3.133</v>
       </c>
       <c r="F7" t="n">
-        <v>3.848</v>
+        <v>3.599</v>
       </c>
       <c r="G7" t="n">
-        <v>4.232</v>
+        <v>4.173</v>
       </c>
       <c r="H7" t="n">
-        <v>3.112</v>
+        <v>3.841</v>
       </c>
       <c r="I7" t="n">
-        <v>4.128</v>
+        <v>3.591</v>
       </c>
       <c r="J7" t="n">
-        <v>4.515</v>
+        <v>3.885</v>
       </c>
       <c r="K7" t="n">
-        <v>3.55</v>
+        <v>3.998</v>
       </c>
     </row>
     <row r="8">
@@ -632,31 +632,31 @@
         <v>2015</v>
       </c>
       <c r="C8" t="n">
-        <v>3.881</v>
+        <v>2.937</v>
       </c>
       <c r="D8" t="n">
-        <v>3.798</v>
+        <v>3.201</v>
       </c>
       <c r="E8" t="n">
-        <v>3.631</v>
+        <v>3.005</v>
       </c>
       <c r="F8" t="n">
-        <v>3.812</v>
+        <v>3.49</v>
       </c>
       <c r="G8" t="n">
-        <v>4.108</v>
+        <v>4.197</v>
       </c>
       <c r="H8" t="n">
-        <v>3.088</v>
+        <v>3.289</v>
       </c>
       <c r="I8" t="n">
-        <v>4.075</v>
+        <v>3.53</v>
       </c>
       <c r="J8" t="n">
-        <v>4.515</v>
+        <v>3.853</v>
       </c>
       <c r="K8" t="n">
-        <v>3.517</v>
+        <v>3.981</v>
       </c>
     </row>
     <row r="9">
@@ -667,31 +667,31 @@
         <v>2016</v>
       </c>
       <c r="C9" t="n">
-        <v>3.841</v>
+        <v>2.911</v>
       </c>
       <c r="D9" t="n">
-        <v>3.784</v>
+        <v>3.182</v>
       </c>
       <c r="E9" t="n">
-        <v>3.583</v>
+        <v>2.953</v>
       </c>
       <c r="F9" t="n">
-        <v>3.809</v>
+        <v>3.475</v>
       </c>
       <c r="G9" t="n">
-        <v>4.13</v>
+        <v>4.201</v>
       </c>
       <c r="H9" t="n">
-        <v>3.098</v>
+        <v>3.246</v>
       </c>
       <c r="I9" t="n">
-        <v>4.075</v>
+        <v>3.531</v>
       </c>
       <c r="J9" t="n">
-        <v>4.563</v>
+        <v>3.885</v>
       </c>
       <c r="K9" t="n">
-        <v>3.51</v>
+        <v>3.965</v>
       </c>
     </row>
     <row r="10">
@@ -702,31 +702,31 @@
         <v>2017</v>
       </c>
       <c r="C10" t="n">
-        <v>3.876</v>
+        <v>2.867</v>
       </c>
       <c r="D10" t="n">
-        <v>3.768</v>
+        <v>3.165</v>
       </c>
       <c r="E10" t="n">
-        <v>3.536</v>
+        <v>2.89</v>
       </c>
       <c r="F10" t="n">
-        <v>3.788</v>
+        <v>3.443</v>
       </c>
       <c r="G10" t="n">
-        <v>4.112</v>
+        <v>4.211</v>
       </c>
       <c r="H10" t="n">
-        <v>3.055</v>
+        <v>3.235</v>
       </c>
       <c r="I10" t="n">
-        <v>4.044</v>
+        <v>3.44</v>
       </c>
       <c r="J10" t="n">
-        <v>4.531</v>
+        <v>3.853</v>
       </c>
       <c r="K10" t="n">
-        <v>3.495</v>
+        <v>3.958</v>
       </c>
     </row>
     <row r="11">
@@ -737,31 +737,31 @@
         <v>2018</v>
       </c>
       <c r="C11" t="n">
-        <v>3.835</v>
+        <v>2.802</v>
       </c>
       <c r="D11" t="n">
-        <v>3.754</v>
+        <v>3.147</v>
       </c>
       <c r="E11" t="n">
-        <v>3.615</v>
+        <v>2.876</v>
       </c>
       <c r="F11" t="n">
-        <v>3.792</v>
+        <v>3.42</v>
       </c>
       <c r="G11" t="n">
-        <v>4.122</v>
+        <v>4.186</v>
       </c>
       <c r="H11" t="n">
-        <v>3.048</v>
+        <v>3.251</v>
       </c>
       <c r="I11" t="n">
-        <v>4.104</v>
+        <v>3.343</v>
       </c>
       <c r="J11" t="n">
-        <v>4.483</v>
+        <v>3.901</v>
       </c>
       <c r="K11" t="n">
-        <v>3.488</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="12">
@@ -772,31 +772,31 @@
         <v>2019</v>
       </c>
       <c r="C12" t="n">
-        <v>3.776</v>
+        <v>2.672</v>
       </c>
       <c r="D12" t="n">
-        <v>3.756</v>
+        <v>3.094</v>
       </c>
       <c r="E12" t="n">
-        <v>3.617</v>
+        <v>3.007</v>
       </c>
       <c r="F12" t="n">
-        <v>3.79</v>
+        <v>3.426</v>
       </c>
       <c r="G12" t="n">
-        <v>4.129</v>
+        <v>4.189</v>
       </c>
       <c r="H12" t="n">
-        <v>3.064</v>
+        <v>3.294</v>
       </c>
       <c r="I12" t="n">
-        <v>4.187</v>
+        <v>3.444</v>
       </c>
       <c r="J12" t="n">
-        <v>4.434</v>
+        <v>3.853</v>
       </c>
       <c r="K12" t="n">
-        <v>3.452</v>
+        <v>3.941</v>
       </c>
     </row>
     <row r="13">
@@ -807,31 +807,31 @@
         <v>2020</v>
       </c>
       <c r="C13" t="n">
-        <v>3.567</v>
+        <v>2.806</v>
       </c>
       <c r="D13" t="n">
-        <v>3.681</v>
+        <v>3.072</v>
       </c>
       <c r="E13" t="n">
-        <v>3.461</v>
+        <v>2.81</v>
       </c>
       <c r="F13" t="n">
-        <v>3.747</v>
+        <v>3.423</v>
       </c>
       <c r="G13" t="n">
-        <v>4.151</v>
+        <v>4.201</v>
       </c>
       <c r="H13" t="n">
-        <v>3.311</v>
+        <v>3.27</v>
       </c>
       <c r="I13" t="n">
-        <v>3.982</v>
+        <v>3.412</v>
       </c>
       <c r="J13" t="n">
-        <v>4.386</v>
+        <v>3.933</v>
       </c>
       <c r="K13" t="n">
-        <v>3.513</v>
+        <v>3.951</v>
       </c>
     </row>
     <row r="14">
@@ -842,31 +842,31 @@
         <v>2021</v>
       </c>
       <c r="C14" t="n">
-        <v>3.513</v>
+        <v>2.879</v>
       </c>
       <c r="D14" t="n">
-        <v>3.667</v>
+        <v>3.231</v>
       </c>
       <c r="E14" t="n">
-        <v>3.476</v>
+        <v>2.877</v>
       </c>
       <c r="F14" t="n">
-        <v>3.729</v>
+        <v>3.462</v>
       </c>
       <c r="G14" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="H14" t="n">
-        <v>3.252</v>
+        <v>3.284</v>
       </c>
       <c r="I14" t="n">
-        <v>3.966</v>
+        <v>3.4</v>
       </c>
       <c r="J14" t="n">
-        <v>4.338</v>
+        <v>3.949</v>
       </c>
       <c r="K14" t="n">
-        <v>3.558</v>
+        <v>3.951</v>
       </c>
     </row>
     <row r="15">
@@ -877,31 +877,31 @@
         <v>2022</v>
       </c>
       <c r="C15" t="n">
-        <v>3.538</v>
+        <v>2.956</v>
       </c>
       <c r="D15" t="n">
-        <v>3.667</v>
+        <v>3.231</v>
       </c>
       <c r="E15" t="n">
-        <v>3.458</v>
+        <v>2.877</v>
       </c>
       <c r="F15" t="n">
-        <v>3.729</v>
+        <v>3.603</v>
       </c>
       <c r="G15" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="H15" t="n">
-        <v>3.252</v>
+        <v>3.847</v>
       </c>
       <c r="I15" t="n">
-        <v>3.957</v>
+        <v>3.4</v>
       </c>
       <c r="J15" t="n">
-        <v>4.338</v>
+        <v>4.403</v>
       </c>
       <c r="K15" t="n">
-        <v>3.558</v>
+        <v>3.951</v>
       </c>
     </row>
   </sheetData>

--- a/04_outputs/PPI_Pillars.xlsx
+++ b/04_outputs/PPI_Pillars.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t xml:space="preserve">geoname</t>
+    <t xml:space="preserve">geocode</t>
   </si>
   <si>
     <t xml:space="preserve">year</t>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">High Levels of Human Capital</t>
   </si>
   <si>
-    <t xml:space="preserve">Burkina Faso</t>
+    <t xml:space="preserve">NER</t>
   </si>
 </sst>
 </file>
@@ -422,31 +422,31 @@
         <v>2009</v>
       </c>
       <c r="C2" t="n">
-        <v>3.085</v>
+        <v>3.558</v>
       </c>
       <c r="D2" t="n">
-        <v>3.351</v>
+        <v>3.922</v>
       </c>
       <c r="E2" t="n">
-        <v>3.024</v>
+        <v>3.442</v>
       </c>
       <c r="F2" t="n">
-        <v>3.551</v>
+        <v>3.749</v>
       </c>
       <c r="G2" t="n">
-        <v>4.158</v>
+        <v>4.26</v>
       </c>
       <c r="H2" t="n">
-        <v>3.177</v>
+        <v>3.296</v>
       </c>
       <c r="I2" t="n">
-        <v>3.677</v>
+        <v>3.655</v>
       </c>
       <c r="J2" t="n">
-        <v>3.932</v>
+        <v>4.322</v>
       </c>
       <c r="K2" t="n">
-        <v>4.079</v>
+        <v>3.636</v>
       </c>
     </row>
     <row r="3">
@@ -457,31 +457,31 @@
         <v>2010</v>
       </c>
       <c r="C3" t="n">
-        <v>3.032</v>
+        <v>3.467</v>
       </c>
       <c r="D3" t="n">
-        <v>3.305</v>
+        <v>3.922</v>
       </c>
       <c r="E3" t="n">
-        <v>3.122</v>
+        <v>3.421</v>
       </c>
       <c r="F3" t="n">
-        <v>3.545</v>
+        <v>3.734</v>
       </c>
       <c r="G3" t="n">
-        <v>4.162</v>
+        <v>4.261</v>
       </c>
       <c r="H3" t="n">
-        <v>3.165</v>
+        <v>3.298</v>
       </c>
       <c r="I3" t="n">
-        <v>3.681</v>
+        <v>3.659</v>
       </c>
       <c r="J3" t="n">
-        <v>3.916</v>
+        <v>4.338</v>
       </c>
       <c r="K3" t="n">
-        <v>4.061</v>
+        <v>3.603</v>
       </c>
     </row>
     <row r="4">
@@ -492,31 +492,31 @@
         <v>2011</v>
       </c>
       <c r="C4" t="n">
-        <v>2.975</v>
+        <v>3.45</v>
       </c>
       <c r="D4" t="n">
-        <v>3.28</v>
+        <v>3.887</v>
       </c>
       <c r="E4" t="n">
-        <v>3.145</v>
+        <v>3.495</v>
       </c>
       <c r="F4" t="n">
-        <v>3.537</v>
+        <v>3.751</v>
       </c>
       <c r="G4" t="n">
-        <v>4.157</v>
+        <v>4.263</v>
       </c>
       <c r="H4" t="n">
-        <v>3.209</v>
+        <v>3.253</v>
       </c>
       <c r="I4" t="n">
-        <v>3.646</v>
+        <v>3.775</v>
       </c>
       <c r="J4" t="n">
-        <v>3.933</v>
+        <v>4.418</v>
       </c>
       <c r="K4" t="n">
-        <v>4.039</v>
+        <v>3.582</v>
       </c>
     </row>
     <row r="5">
@@ -527,31 +527,31 @@
         <v>2012</v>
       </c>
       <c r="C5" t="n">
-        <v>2.93</v>
+        <v>3.44</v>
       </c>
       <c r="D5" t="n">
-        <v>3.259</v>
+        <v>3.856</v>
       </c>
       <c r="E5" t="n">
-        <v>3.165</v>
+        <v>3.505</v>
       </c>
       <c r="F5" t="n">
-        <v>3.528</v>
+        <v>3.758</v>
       </c>
       <c r="G5" t="n">
-        <v>4.112</v>
+        <v>4.278</v>
       </c>
       <c r="H5" t="n">
-        <v>3.252</v>
+        <v>3.349</v>
       </c>
       <c r="I5" t="n">
-        <v>3.68</v>
+        <v>3.773</v>
       </c>
       <c r="J5" t="n">
-        <v>3.885</v>
+        <v>4.37</v>
       </c>
       <c r="K5" t="n">
-        <v>4.023</v>
+        <v>3.595</v>
       </c>
     </row>
     <row r="6">
@@ -562,31 +562,31 @@
         <v>2013</v>
       </c>
       <c r="C6" t="n">
-        <v>2.951</v>
+        <v>3.46</v>
       </c>
       <c r="D6" t="n">
-        <v>3.24</v>
+        <v>3.828</v>
       </c>
       <c r="E6" t="n">
-        <v>3.155</v>
+        <v>3.42</v>
       </c>
       <c r="F6" t="n">
-        <v>3.531</v>
+        <v>3.763</v>
       </c>
       <c r="G6" t="n">
-        <v>4.129</v>
+        <v>4.263</v>
       </c>
       <c r="H6" t="n">
-        <v>3.296</v>
+        <v>3.36</v>
       </c>
       <c r="I6" t="n">
+        <v>3.856</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.386</v>
+      </c>
+      <c r="K6" t="n">
         <v>3.61</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.933</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4.016</v>
       </c>
     </row>
     <row r="7">
@@ -597,31 +597,31 @@
         <v>2014</v>
       </c>
       <c r="C7" t="n">
-        <v>2.958</v>
+        <v>3.416</v>
       </c>
       <c r="D7" t="n">
-        <v>3.22</v>
+        <v>3.803</v>
       </c>
       <c r="E7" t="n">
-        <v>3.133</v>
+        <v>3.421</v>
       </c>
       <c r="F7" t="n">
-        <v>3.599</v>
+        <v>3.767</v>
       </c>
       <c r="G7" t="n">
-        <v>4.173</v>
+        <v>4.321</v>
       </c>
       <c r="H7" t="n">
-        <v>3.841</v>
+        <v>3.349</v>
       </c>
       <c r="I7" t="n">
-        <v>3.591</v>
+        <v>3.881</v>
       </c>
       <c r="J7" t="n">
-        <v>3.885</v>
+        <v>4.402</v>
       </c>
       <c r="K7" t="n">
-        <v>3.998</v>
+        <v>3.627</v>
       </c>
     </row>
     <row r="8">
@@ -632,31 +632,31 @@
         <v>2015</v>
       </c>
       <c r="C8" t="n">
-        <v>2.937</v>
+        <v>3.413</v>
       </c>
       <c r="D8" t="n">
-        <v>3.201</v>
+        <v>3.781</v>
       </c>
       <c r="E8" t="n">
-        <v>3.005</v>
+        <v>3.411</v>
       </c>
       <c r="F8" t="n">
-        <v>3.49</v>
+        <v>3.777</v>
       </c>
       <c r="G8" t="n">
-        <v>4.197</v>
+        <v>4.313</v>
       </c>
       <c r="H8" t="n">
-        <v>3.289</v>
+        <v>3.318</v>
       </c>
       <c r="I8" t="n">
-        <v>3.53</v>
+        <v>3.867</v>
       </c>
       <c r="J8" t="n">
-        <v>3.853</v>
+        <v>4.322</v>
       </c>
       <c r="K8" t="n">
-        <v>3.981</v>
+        <v>3.884</v>
       </c>
     </row>
     <row r="9">
@@ -667,31 +667,31 @@
         <v>2016</v>
       </c>
       <c r="C9" t="n">
-        <v>2.911</v>
+        <v>3.434</v>
       </c>
       <c r="D9" t="n">
-        <v>3.182</v>
+        <v>3.759</v>
       </c>
       <c r="E9" t="n">
-        <v>2.953</v>
+        <v>3.398</v>
       </c>
       <c r="F9" t="n">
-        <v>3.475</v>
+        <v>3.811</v>
       </c>
       <c r="G9" t="n">
-        <v>4.201</v>
+        <v>4.305</v>
       </c>
       <c r="H9" t="n">
-        <v>3.246</v>
+        <v>3.342</v>
       </c>
       <c r="I9" t="n">
-        <v>3.531</v>
+        <v>3.864</v>
       </c>
       <c r="J9" t="n">
-        <v>3.885</v>
+        <v>4.354</v>
       </c>
       <c r="K9" t="n">
-        <v>3.965</v>
+        <v>4.133</v>
       </c>
     </row>
     <row r="10">
@@ -702,31 +702,31 @@
         <v>2017</v>
       </c>
       <c r="C10" t="n">
-        <v>2.867</v>
+        <v>3.422</v>
       </c>
       <c r="D10" t="n">
-        <v>3.165</v>
+        <v>3.739</v>
       </c>
       <c r="E10" t="n">
-        <v>2.89</v>
+        <v>3.326</v>
       </c>
       <c r="F10" t="n">
-        <v>3.443</v>
+        <v>3.787</v>
       </c>
       <c r="G10" t="n">
-        <v>4.211</v>
+        <v>4.301</v>
       </c>
       <c r="H10" t="n">
-        <v>3.235</v>
+        <v>3.367</v>
       </c>
       <c r="I10" t="n">
-        <v>3.44</v>
+        <v>3.871</v>
       </c>
       <c r="J10" t="n">
-        <v>3.853</v>
+        <v>3.949</v>
       </c>
       <c r="K10" t="n">
-        <v>3.958</v>
+        <v>4.382</v>
       </c>
     </row>
     <row r="11">
@@ -737,31 +737,31 @@
         <v>2018</v>
       </c>
       <c r="C11" t="n">
-        <v>2.802</v>
+        <v>3.411</v>
       </c>
       <c r="D11" t="n">
-        <v>3.147</v>
+        <v>3.721</v>
       </c>
       <c r="E11" t="n">
-        <v>2.876</v>
+        <v>3.328</v>
       </c>
       <c r="F11" t="n">
-        <v>3.42</v>
+        <v>3.77</v>
       </c>
       <c r="G11" t="n">
-        <v>4.186</v>
+        <v>4.297</v>
       </c>
       <c r="H11" t="n">
-        <v>3.251</v>
+        <v>3.355</v>
       </c>
       <c r="I11" t="n">
-        <v>3.343</v>
+        <v>3.84</v>
       </c>
       <c r="J11" t="n">
         <v>3.901</v>
       </c>
       <c r="K11" t="n">
-        <v>3.94</v>
+        <v>4.372</v>
       </c>
     </row>
     <row r="12">
@@ -772,31 +772,31 @@
         <v>2019</v>
       </c>
       <c r="C12" t="n">
-        <v>2.672</v>
+        <v>3.45</v>
       </c>
       <c r="D12" t="n">
-        <v>3.094</v>
+        <v>3.702</v>
       </c>
       <c r="E12" t="n">
-        <v>3.007</v>
+        <v>3.447</v>
       </c>
       <c r="F12" t="n">
-        <v>3.426</v>
+        <v>3.782</v>
       </c>
       <c r="G12" t="n">
-        <v>4.189</v>
+        <v>4.309</v>
       </c>
       <c r="H12" t="n">
-        <v>3.294</v>
+        <v>3.344</v>
       </c>
       <c r="I12" t="n">
-        <v>3.444</v>
+        <v>3.826</v>
       </c>
       <c r="J12" t="n">
-        <v>3.853</v>
+        <v>3.901</v>
       </c>
       <c r="K12" t="n">
-        <v>3.941</v>
+        <v>4.357</v>
       </c>
     </row>
     <row r="13">
@@ -807,31 +807,31 @@
         <v>2020</v>
       </c>
       <c r="C13" t="n">
-        <v>2.806</v>
+        <v>3.46</v>
       </c>
       <c r="D13" t="n">
-        <v>3.072</v>
+        <v>3.644</v>
       </c>
       <c r="E13" t="n">
-        <v>2.81</v>
+        <v>3.389</v>
       </c>
       <c r="F13" t="n">
-        <v>3.423</v>
+        <v>3.775</v>
       </c>
       <c r="G13" t="n">
-        <v>4.201</v>
+        <v>4.334</v>
       </c>
       <c r="H13" t="n">
-        <v>3.27</v>
+        <v>3.295</v>
       </c>
       <c r="I13" t="n">
-        <v>3.412</v>
+        <v>3.856</v>
       </c>
       <c r="J13" t="n">
-        <v>3.933</v>
+        <v>3.893</v>
       </c>
       <c r="K13" t="n">
-        <v>3.951</v>
+        <v>4.406</v>
       </c>
     </row>
     <row r="14">
@@ -842,31 +842,31 @@
         <v>2021</v>
       </c>
       <c r="C14" t="n">
-        <v>2.879</v>
+        <v>3.544</v>
       </c>
       <c r="D14" t="n">
-        <v>3.231</v>
+        <v>3.634</v>
       </c>
       <c r="E14" t="n">
-        <v>2.877</v>
+        <v>3.391</v>
       </c>
       <c r="F14" t="n">
-        <v>3.462</v>
+        <v>3.775</v>
       </c>
       <c r="G14" t="n">
-        <v>4.2</v>
+        <v>4.322</v>
       </c>
       <c r="H14" t="n">
-        <v>3.284</v>
+        <v>3.241</v>
       </c>
       <c r="I14" t="n">
-        <v>3.4</v>
+        <v>3.889</v>
       </c>
       <c r="J14" t="n">
-        <v>3.949</v>
+        <v>3.853</v>
       </c>
       <c r="K14" t="n">
-        <v>3.951</v>
+        <v>4.406</v>
       </c>
     </row>
     <row r="15">
@@ -877,31 +877,31 @@
         <v>2022</v>
       </c>
       <c r="C15" t="n">
-        <v>2.956</v>
+        <v>3.556</v>
       </c>
       <c r="D15" t="n">
-        <v>3.231</v>
+        <v>3.668</v>
       </c>
       <c r="E15" t="n">
-        <v>2.877</v>
+        <v>3.391</v>
       </c>
       <c r="F15" t="n">
-        <v>3.603</v>
+        <v>3.794</v>
       </c>
       <c r="G15" t="n">
-        <v>4.2</v>
+        <v>4.322</v>
       </c>
       <c r="H15" t="n">
-        <v>3.847</v>
+        <v>3.241</v>
       </c>
       <c r="I15" t="n">
-        <v>3.4</v>
+        <v>3.957</v>
       </c>
       <c r="J15" t="n">
-        <v>4.403</v>
+        <v>3.885</v>
       </c>
       <c r="K15" t="n">
-        <v>3.951</v>
+        <v>4.406</v>
       </c>
     </row>
   </sheetData>

--- a/04_outputs/PPI_Pillars.xlsx
+++ b/04_outputs/PPI_Pillars.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">High Levels of Human Capital</t>
   </si>
   <si>
-    <t xml:space="preserve">NER</t>
+    <t xml:space="preserve">SOM</t>
   </si>
 </sst>
 </file>
@@ -422,31 +422,31 @@
         <v>2009</v>
       </c>
       <c r="C2" t="n">
-        <v>3.558</v>
+        <v>4.516</v>
       </c>
       <c r="D2" t="n">
-        <v>3.922</v>
+        <v>4.801</v>
       </c>
       <c r="E2" t="n">
-        <v>3.442</v>
+        <v>4.01</v>
       </c>
       <c r="F2" t="n">
-        <v>3.749</v>
+        <v>4.638</v>
       </c>
       <c r="G2" t="n">
-        <v>4.26</v>
+        <v>4.864</v>
       </c>
       <c r="H2" t="n">
-        <v>3.296</v>
+        <v>4.914</v>
       </c>
       <c r="I2" t="n">
-        <v>3.655</v>
+        <v>4.679</v>
       </c>
       <c r="J2" t="n">
-        <v>4.322</v>
+        <v>4.96</v>
       </c>
       <c r="K2" t="n">
-        <v>3.636</v>
+        <v>4.262</v>
       </c>
     </row>
     <row r="3">
@@ -457,31 +457,31 @@
         <v>2010</v>
       </c>
       <c r="C3" t="n">
-        <v>3.467</v>
+        <v>4.507</v>
       </c>
       <c r="D3" t="n">
-        <v>3.922</v>
+        <v>4.801</v>
       </c>
       <c r="E3" t="n">
-        <v>3.421</v>
+        <v>4.036</v>
       </c>
       <c r="F3" t="n">
-        <v>3.734</v>
+        <v>4.633</v>
       </c>
       <c r="G3" t="n">
-        <v>4.261</v>
+        <v>4.797</v>
       </c>
       <c r="H3" t="n">
-        <v>3.298</v>
+        <v>4.904</v>
       </c>
       <c r="I3" t="n">
-        <v>3.659</v>
+        <v>4.687</v>
       </c>
       <c r="J3" t="n">
-        <v>4.338</v>
+        <v>4.928</v>
       </c>
       <c r="K3" t="n">
-        <v>3.603</v>
+        <v>4.305</v>
       </c>
     </row>
     <row r="4">
@@ -492,31 +492,31 @@
         <v>2011</v>
       </c>
       <c r="C4" t="n">
-        <v>3.45</v>
+        <v>4.472</v>
       </c>
       <c r="D4" t="n">
-        <v>3.887</v>
+        <v>4.782</v>
       </c>
       <c r="E4" t="n">
-        <v>3.495</v>
+        <v>4.063</v>
       </c>
       <c r="F4" t="n">
-        <v>3.751</v>
+        <v>4.62</v>
       </c>
       <c r="G4" t="n">
-        <v>4.263</v>
+        <v>4.806</v>
       </c>
       <c r="H4" t="n">
-        <v>3.253</v>
+        <v>4.877</v>
       </c>
       <c r="I4" t="n">
-        <v>3.775</v>
+        <v>4.656</v>
       </c>
       <c r="J4" t="n">
-        <v>4.418</v>
+        <v>4.944</v>
       </c>
       <c r="K4" t="n">
-        <v>3.582</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="5">
@@ -527,31 +527,31 @@
         <v>2012</v>
       </c>
       <c r="C5" t="n">
-        <v>3.44</v>
+        <v>4.472</v>
       </c>
       <c r="D5" t="n">
-        <v>3.856</v>
+        <v>4.717</v>
       </c>
       <c r="E5" t="n">
-        <v>3.505</v>
+        <v>4.231</v>
       </c>
       <c r="F5" t="n">
-        <v>3.758</v>
+        <v>4.622</v>
       </c>
       <c r="G5" t="n">
-        <v>4.278</v>
+        <v>4.769</v>
       </c>
       <c r="H5" t="n">
-        <v>3.349</v>
+        <v>4.915</v>
       </c>
       <c r="I5" t="n">
-        <v>3.773</v>
+        <v>4.628</v>
       </c>
       <c r="J5" t="n">
-        <v>4.37</v>
+        <v>4.96</v>
       </c>
       <c r="K5" t="n">
-        <v>3.595</v>
+        <v>4.217</v>
       </c>
     </row>
     <row r="6">
@@ -562,31 +562,31 @@
         <v>2013</v>
       </c>
       <c r="C6" t="n">
-        <v>3.46</v>
+        <v>4.419</v>
       </c>
       <c r="D6" t="n">
-        <v>3.828</v>
+        <v>4.696</v>
       </c>
       <c r="E6" t="n">
-        <v>3.42</v>
+        <v>4.224</v>
       </c>
       <c r="F6" t="n">
-        <v>3.763</v>
+        <v>4.603</v>
       </c>
       <c r="G6" t="n">
-        <v>4.263</v>
+        <v>4.761</v>
       </c>
       <c r="H6" t="n">
-        <v>3.36</v>
+        <v>4.911</v>
       </c>
       <c r="I6" t="n">
-        <v>3.856</v>
+        <v>4.652</v>
       </c>
       <c r="J6" t="n">
-        <v>4.386</v>
+        <v>4.896</v>
       </c>
       <c r="K6" t="n">
-        <v>3.61</v>
+        <v>4.193</v>
       </c>
     </row>
     <row r="7">
@@ -597,31 +597,31 @@
         <v>2014</v>
       </c>
       <c r="C7" t="n">
-        <v>3.416</v>
+        <v>4.414</v>
       </c>
       <c r="D7" t="n">
-        <v>3.803</v>
+        <v>4.677</v>
       </c>
       <c r="E7" t="n">
-        <v>3.421</v>
+        <v>4.213</v>
       </c>
       <c r="F7" t="n">
-        <v>3.767</v>
+        <v>4.599</v>
       </c>
       <c r="G7" t="n">
-        <v>4.321</v>
+        <v>4.712</v>
       </c>
       <c r="H7" t="n">
-        <v>3.349</v>
+        <v>4.968</v>
       </c>
       <c r="I7" t="n">
-        <v>3.881</v>
+        <v>4.678</v>
       </c>
       <c r="J7" t="n">
-        <v>4.402</v>
+        <v>4.863</v>
       </c>
       <c r="K7" t="n">
-        <v>3.627</v>
+        <v>4.178</v>
       </c>
     </row>
     <row r="8">
@@ -632,31 +632,31 @@
         <v>2015</v>
       </c>
       <c r="C8" t="n">
-        <v>3.413</v>
+        <v>4.423</v>
       </c>
       <c r="D8" t="n">
-        <v>3.781</v>
+        <v>4.659</v>
       </c>
       <c r="E8" t="n">
-        <v>3.411</v>
+        <v>4.136</v>
       </c>
       <c r="F8" t="n">
-        <v>3.777</v>
+        <v>4.577</v>
       </c>
       <c r="G8" t="n">
-        <v>4.313</v>
+        <v>4.71</v>
       </c>
       <c r="H8" t="n">
-        <v>3.318</v>
+        <v>4.875</v>
       </c>
       <c r="I8" t="n">
-        <v>3.867</v>
+        <v>4.666</v>
       </c>
       <c r="J8" t="n">
-        <v>4.322</v>
+        <v>4.911</v>
       </c>
       <c r="K8" t="n">
-        <v>3.884</v>
+        <v>4.157</v>
       </c>
     </row>
     <row r="9">
@@ -667,31 +667,31 @@
         <v>2016</v>
       </c>
       <c r="C9" t="n">
-        <v>3.434</v>
+        <v>4.38</v>
       </c>
       <c r="D9" t="n">
-        <v>3.759</v>
+        <v>4.646</v>
       </c>
       <c r="E9" t="n">
-        <v>3.398</v>
+        <v>4.137</v>
       </c>
       <c r="F9" t="n">
-        <v>3.811</v>
+        <v>4.575</v>
       </c>
       <c r="G9" t="n">
-        <v>4.305</v>
+        <v>4.738</v>
       </c>
       <c r="H9" t="n">
-        <v>3.342</v>
+        <v>4.875</v>
       </c>
       <c r="I9" t="n">
-        <v>3.864</v>
+        <v>4.683</v>
       </c>
       <c r="J9" t="n">
-        <v>4.354</v>
+        <v>4.91</v>
       </c>
       <c r="K9" t="n">
-        <v>4.133</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="10">
@@ -702,31 +702,31 @@
         <v>2017</v>
       </c>
       <c r="C10" t="n">
-        <v>3.422</v>
+        <v>4.315</v>
       </c>
       <c r="D10" t="n">
-        <v>3.739</v>
+        <v>4.628</v>
       </c>
       <c r="E10" t="n">
-        <v>3.326</v>
+        <v>4.136</v>
       </c>
       <c r="F10" t="n">
-        <v>3.787</v>
+        <v>4.547</v>
       </c>
       <c r="G10" t="n">
-        <v>4.301</v>
+        <v>4.738</v>
       </c>
       <c r="H10" t="n">
-        <v>3.367</v>
+        <v>4.876</v>
       </c>
       <c r="I10" t="n">
-        <v>3.871</v>
+        <v>4.603</v>
       </c>
       <c r="J10" t="n">
-        <v>3.949</v>
+        <v>4.878</v>
       </c>
       <c r="K10" t="n">
-        <v>4.382</v>
+        <v>4.129</v>
       </c>
     </row>
     <row r="11">
@@ -737,31 +737,31 @@
         <v>2018</v>
       </c>
       <c r="C11" t="n">
-        <v>3.411</v>
+        <v>4.334</v>
       </c>
       <c r="D11" t="n">
-        <v>3.721</v>
+        <v>4.605</v>
       </c>
       <c r="E11" t="n">
-        <v>3.328</v>
+        <v>4.104</v>
       </c>
       <c r="F11" t="n">
-        <v>3.77</v>
+        <v>4.542</v>
       </c>
       <c r="G11" t="n">
-        <v>4.297</v>
+        <v>4.7</v>
       </c>
       <c r="H11" t="n">
-        <v>3.355</v>
+        <v>4.874</v>
       </c>
       <c r="I11" t="n">
-        <v>3.84</v>
+        <v>4.679</v>
       </c>
       <c r="J11" t="n">
-        <v>3.901</v>
+        <v>4.843</v>
       </c>
       <c r="K11" t="n">
-        <v>4.372</v>
+        <v>4.104</v>
       </c>
     </row>
     <row r="12">
@@ -772,31 +772,31 @@
         <v>2019</v>
       </c>
       <c r="C12" t="n">
-        <v>3.45</v>
+        <v>4.294</v>
       </c>
       <c r="D12" t="n">
-        <v>3.702</v>
+        <v>4.511</v>
       </c>
       <c r="E12" t="n">
-        <v>3.447</v>
+        <v>4.006</v>
       </c>
       <c r="F12" t="n">
-        <v>3.782</v>
+        <v>4.516</v>
       </c>
       <c r="G12" t="n">
-        <v>4.309</v>
+        <v>4.724</v>
       </c>
       <c r="H12" t="n">
-        <v>3.344</v>
+        <v>4.915</v>
       </c>
       <c r="I12" t="n">
-        <v>3.826</v>
+        <v>4.634</v>
       </c>
       <c r="J12" t="n">
-        <v>3.901</v>
+        <v>4.862</v>
       </c>
       <c r="K12" t="n">
-        <v>4.357</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="13">
@@ -807,31 +807,31 @@
         <v>2020</v>
       </c>
       <c r="C13" t="n">
-        <v>3.46</v>
+        <v>4.265</v>
       </c>
       <c r="D13" t="n">
-        <v>3.644</v>
+        <v>4.482</v>
       </c>
       <c r="E13" t="n">
-        <v>3.389</v>
+        <v>4.175</v>
       </c>
       <c r="F13" t="n">
-        <v>3.775</v>
+        <v>4.514</v>
       </c>
       <c r="G13" t="n">
-        <v>4.334</v>
+        <v>4.657</v>
       </c>
       <c r="H13" t="n">
-        <v>3.295</v>
+        <v>4.853</v>
       </c>
       <c r="I13" t="n">
-        <v>3.856</v>
+        <v>4.651</v>
       </c>
       <c r="J13" t="n">
-        <v>3.893</v>
+        <v>4.841</v>
       </c>
       <c r="K13" t="n">
-        <v>4.406</v>
+        <v>4.117</v>
       </c>
     </row>
     <row r="14">
@@ -842,31 +842,31 @@
         <v>2021</v>
       </c>
       <c r="C14" t="n">
-        <v>3.544</v>
+        <v>4.138</v>
       </c>
       <c r="D14" t="n">
-        <v>3.634</v>
+        <v>4.334</v>
       </c>
       <c r="E14" t="n">
-        <v>3.391</v>
+        <v>3.951</v>
       </c>
       <c r="F14" t="n">
-        <v>3.775</v>
+        <v>4.444</v>
       </c>
       <c r="G14" t="n">
-        <v>4.322</v>
+        <v>4.618</v>
       </c>
       <c r="H14" t="n">
-        <v>3.241</v>
+        <v>4.826</v>
       </c>
       <c r="I14" t="n">
-        <v>3.889</v>
+        <v>4.657</v>
       </c>
       <c r="J14" t="n">
-        <v>3.853</v>
+        <v>4.819</v>
       </c>
       <c r="K14" t="n">
-        <v>4.406</v>
+        <v>4.117</v>
       </c>
     </row>
     <row r="15">
@@ -877,31 +877,31 @@
         <v>2022</v>
       </c>
       <c r="C15" t="n">
-        <v>3.556</v>
+        <v>4.15</v>
       </c>
       <c r="D15" t="n">
-        <v>3.668</v>
+        <v>4.334</v>
       </c>
       <c r="E15" t="n">
-        <v>3.391</v>
+        <v>3.951</v>
       </c>
       <c r="F15" t="n">
-        <v>3.794</v>
+        <v>4.447</v>
       </c>
       <c r="G15" t="n">
-        <v>4.322</v>
+        <v>4.618</v>
       </c>
       <c r="H15" t="n">
-        <v>3.241</v>
+        <v>4.826</v>
       </c>
       <c r="I15" t="n">
-        <v>3.957</v>
+        <v>4.657</v>
       </c>
       <c r="J15" t="n">
-        <v>3.885</v>
+        <v>4.835</v>
       </c>
       <c r="K15" t="n">
-        <v>4.406</v>
+        <v>4.117</v>
       </c>
     </row>
   </sheetData>

--- a/04_outputs/PPI_Pillars.xlsx
+++ b/04_outputs/PPI_Pillars.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">High Levels of Human Capital</t>
   </si>
   <si>
-    <t xml:space="preserve">SOM</t>
+    <t xml:space="preserve">BFA</t>
   </si>
 </sst>
 </file>
@@ -422,31 +422,31 @@
         <v>2009</v>
       </c>
       <c r="C2" t="n">
-        <v>4.516</v>
+        <v>3.085</v>
       </c>
       <c r="D2" t="n">
-        <v>4.801</v>
+        <v>3.351</v>
       </c>
       <c r="E2" t="n">
-        <v>4.01</v>
+        <v>3.024</v>
       </c>
       <c r="F2" t="n">
-        <v>4.638</v>
+        <v>3.551</v>
       </c>
       <c r="G2" t="n">
-        <v>4.864</v>
+        <v>4.158</v>
       </c>
       <c r="H2" t="n">
-        <v>4.914</v>
+        <v>3.177</v>
       </c>
       <c r="I2" t="n">
-        <v>4.679</v>
+        <v>3.677</v>
       </c>
       <c r="J2" t="n">
-        <v>4.96</v>
+        <v>3.932</v>
       </c>
       <c r="K2" t="n">
-        <v>4.262</v>
+        <v>4.079</v>
       </c>
     </row>
     <row r="3">
@@ -457,31 +457,31 @@
         <v>2010</v>
       </c>
       <c r="C3" t="n">
-        <v>4.507</v>
+        <v>3.032</v>
       </c>
       <c r="D3" t="n">
-        <v>4.801</v>
+        <v>3.305</v>
       </c>
       <c r="E3" t="n">
-        <v>4.036</v>
+        <v>3.122</v>
       </c>
       <c r="F3" t="n">
-        <v>4.633</v>
+        <v>3.545</v>
       </c>
       <c r="G3" t="n">
-        <v>4.797</v>
+        <v>4.162</v>
       </c>
       <c r="H3" t="n">
-        <v>4.904</v>
+        <v>3.165</v>
       </c>
       <c r="I3" t="n">
-        <v>4.687</v>
+        <v>3.681</v>
       </c>
       <c r="J3" t="n">
-        <v>4.928</v>
+        <v>3.916</v>
       </c>
       <c r="K3" t="n">
-        <v>4.305</v>
+        <v>4.061</v>
       </c>
     </row>
     <row r="4">
@@ -492,31 +492,31 @@
         <v>2011</v>
       </c>
       <c r="C4" t="n">
-        <v>4.472</v>
+        <v>2.975</v>
       </c>
       <c r="D4" t="n">
-        <v>4.782</v>
+        <v>3.28</v>
       </c>
       <c r="E4" t="n">
-        <v>4.063</v>
+        <v>3.145</v>
       </c>
       <c r="F4" t="n">
-        <v>4.62</v>
+        <v>3.537</v>
       </c>
       <c r="G4" t="n">
-        <v>4.806</v>
+        <v>4.157</v>
       </c>
       <c r="H4" t="n">
-        <v>4.877</v>
+        <v>3.209</v>
       </c>
       <c r="I4" t="n">
-        <v>4.656</v>
+        <v>3.646</v>
       </c>
       <c r="J4" t="n">
-        <v>4.944</v>
+        <v>3.933</v>
       </c>
       <c r="K4" t="n">
-        <v>4.28</v>
+        <v>4.039</v>
       </c>
     </row>
     <row r="5">
@@ -527,31 +527,31 @@
         <v>2012</v>
       </c>
       <c r="C5" t="n">
-        <v>4.472</v>
+        <v>2.93</v>
       </c>
       <c r="D5" t="n">
-        <v>4.717</v>
+        <v>3.259</v>
       </c>
       <c r="E5" t="n">
-        <v>4.231</v>
+        <v>3.165</v>
       </c>
       <c r="F5" t="n">
-        <v>4.622</v>
+        <v>3.528</v>
       </c>
       <c r="G5" t="n">
-        <v>4.769</v>
+        <v>4.112</v>
       </c>
       <c r="H5" t="n">
-        <v>4.915</v>
+        <v>3.252</v>
       </c>
       <c r="I5" t="n">
-        <v>4.628</v>
+        <v>3.68</v>
       </c>
       <c r="J5" t="n">
-        <v>4.96</v>
+        <v>3.885</v>
       </c>
       <c r="K5" t="n">
-        <v>4.217</v>
+        <v>4.023</v>
       </c>
     </row>
     <row r="6">
@@ -562,31 +562,31 @@
         <v>2013</v>
       </c>
       <c r="C6" t="n">
-        <v>4.419</v>
+        <v>2.951</v>
       </c>
       <c r="D6" t="n">
-        <v>4.696</v>
+        <v>3.24</v>
       </c>
       <c r="E6" t="n">
-        <v>4.224</v>
+        <v>3.155</v>
       </c>
       <c r="F6" t="n">
-        <v>4.603</v>
+        <v>3.531</v>
       </c>
       <c r="G6" t="n">
-        <v>4.761</v>
+        <v>4.129</v>
       </c>
       <c r="H6" t="n">
-        <v>4.911</v>
+        <v>3.296</v>
       </c>
       <c r="I6" t="n">
-        <v>4.652</v>
+        <v>3.61</v>
       </c>
       <c r="J6" t="n">
-        <v>4.896</v>
+        <v>3.933</v>
       </c>
       <c r="K6" t="n">
-        <v>4.193</v>
+        <v>4.016</v>
       </c>
     </row>
     <row r="7">
@@ -597,31 +597,31 @@
         <v>2014</v>
       </c>
       <c r="C7" t="n">
-        <v>4.414</v>
+        <v>2.958</v>
       </c>
       <c r="D7" t="n">
-        <v>4.677</v>
+        <v>3.22</v>
       </c>
       <c r="E7" t="n">
-        <v>4.213</v>
+        <v>3.133</v>
       </c>
       <c r="F7" t="n">
-        <v>4.599</v>
+        <v>3.599</v>
       </c>
       <c r="G7" t="n">
-        <v>4.712</v>
+        <v>4.173</v>
       </c>
       <c r="H7" t="n">
-        <v>4.968</v>
+        <v>3.841</v>
       </c>
       <c r="I7" t="n">
-        <v>4.678</v>
+        <v>3.591</v>
       </c>
       <c r="J7" t="n">
-        <v>4.863</v>
+        <v>3.885</v>
       </c>
       <c r="K7" t="n">
-        <v>4.178</v>
+        <v>3.998</v>
       </c>
     </row>
     <row r="8">
@@ -632,31 +632,31 @@
         <v>2015</v>
       </c>
       <c r="C8" t="n">
-        <v>4.423</v>
+        <v>2.937</v>
       </c>
       <c r="D8" t="n">
-        <v>4.659</v>
+        <v>3.201</v>
       </c>
       <c r="E8" t="n">
-        <v>4.136</v>
+        <v>3.005</v>
       </c>
       <c r="F8" t="n">
-        <v>4.577</v>
+        <v>3.49</v>
       </c>
       <c r="G8" t="n">
-        <v>4.71</v>
+        <v>4.197</v>
       </c>
       <c r="H8" t="n">
-        <v>4.875</v>
+        <v>3.289</v>
       </c>
       <c r="I8" t="n">
-        <v>4.666</v>
+        <v>3.53</v>
       </c>
       <c r="J8" t="n">
-        <v>4.911</v>
+        <v>3.853</v>
       </c>
       <c r="K8" t="n">
-        <v>4.157</v>
+        <v>3.981</v>
       </c>
     </row>
     <row r="9">
@@ -667,31 +667,31 @@
         <v>2016</v>
       </c>
       <c r="C9" t="n">
-        <v>4.38</v>
+        <v>2.911</v>
       </c>
       <c r="D9" t="n">
-        <v>4.646</v>
+        <v>3.182</v>
       </c>
       <c r="E9" t="n">
-        <v>4.137</v>
+        <v>2.953</v>
       </c>
       <c r="F9" t="n">
-        <v>4.575</v>
+        <v>3.475</v>
       </c>
       <c r="G9" t="n">
-        <v>4.738</v>
+        <v>4.201</v>
       </c>
       <c r="H9" t="n">
-        <v>4.875</v>
+        <v>3.246</v>
       </c>
       <c r="I9" t="n">
-        <v>4.683</v>
+        <v>3.531</v>
       </c>
       <c r="J9" t="n">
-        <v>4.91</v>
+        <v>3.885</v>
       </c>
       <c r="K9" t="n">
-        <v>4.15</v>
+        <v>3.965</v>
       </c>
     </row>
     <row r="10">
@@ -702,31 +702,31 @@
         <v>2017</v>
       </c>
       <c r="C10" t="n">
-        <v>4.315</v>
+        <v>2.867</v>
       </c>
       <c r="D10" t="n">
-        <v>4.628</v>
+        <v>3.165</v>
       </c>
       <c r="E10" t="n">
-        <v>4.136</v>
+        <v>2.89</v>
       </c>
       <c r="F10" t="n">
-        <v>4.547</v>
+        <v>3.443</v>
       </c>
       <c r="G10" t="n">
-        <v>4.738</v>
+        <v>4.211</v>
       </c>
       <c r="H10" t="n">
-        <v>4.876</v>
+        <v>3.235</v>
       </c>
       <c r="I10" t="n">
-        <v>4.603</v>
+        <v>3.44</v>
       </c>
       <c r="J10" t="n">
-        <v>4.878</v>
+        <v>3.853</v>
       </c>
       <c r="K10" t="n">
-        <v>4.129</v>
+        <v>3.958</v>
       </c>
     </row>
     <row r="11">
@@ -737,31 +737,31 @@
         <v>2018</v>
       </c>
       <c r="C11" t="n">
-        <v>4.334</v>
+        <v>2.802</v>
       </c>
       <c r="D11" t="n">
-        <v>4.605</v>
+        <v>3.147</v>
       </c>
       <c r="E11" t="n">
-        <v>4.104</v>
+        <v>2.876</v>
       </c>
       <c r="F11" t="n">
-        <v>4.542</v>
+        <v>3.42</v>
       </c>
       <c r="G11" t="n">
-        <v>4.7</v>
+        <v>4.186</v>
       </c>
       <c r="H11" t="n">
-        <v>4.874</v>
+        <v>3.251</v>
       </c>
       <c r="I11" t="n">
-        <v>4.679</v>
+        <v>3.343</v>
       </c>
       <c r="J11" t="n">
-        <v>4.843</v>
+        <v>3.901</v>
       </c>
       <c r="K11" t="n">
-        <v>4.104</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="12">
@@ -772,31 +772,31 @@
         <v>2019</v>
       </c>
       <c r="C12" t="n">
-        <v>4.294</v>
+        <v>2.672</v>
       </c>
       <c r="D12" t="n">
-        <v>4.511</v>
+        <v>3.094</v>
       </c>
       <c r="E12" t="n">
-        <v>4.006</v>
+        <v>3.007</v>
       </c>
       <c r="F12" t="n">
-        <v>4.516</v>
+        <v>3.426</v>
       </c>
       <c r="G12" t="n">
-        <v>4.724</v>
+        <v>4.189</v>
       </c>
       <c r="H12" t="n">
-        <v>4.915</v>
+        <v>3.294</v>
       </c>
       <c r="I12" t="n">
-        <v>4.634</v>
+        <v>3.444</v>
       </c>
       <c r="J12" t="n">
-        <v>4.862</v>
+        <v>3.853</v>
       </c>
       <c r="K12" t="n">
-        <v>4.08</v>
+        <v>3.941</v>
       </c>
     </row>
     <row r="13">
@@ -807,31 +807,31 @@
         <v>2020</v>
       </c>
       <c r="C13" t="n">
-        <v>4.265</v>
+        <v>2.806</v>
       </c>
       <c r="D13" t="n">
-        <v>4.482</v>
+        <v>3.072</v>
       </c>
       <c r="E13" t="n">
-        <v>4.175</v>
+        <v>2.81</v>
       </c>
       <c r="F13" t="n">
-        <v>4.514</v>
+        <v>3.423</v>
       </c>
       <c r="G13" t="n">
-        <v>4.657</v>
+        <v>4.201</v>
       </c>
       <c r="H13" t="n">
-        <v>4.853</v>
+        <v>3.27</v>
       </c>
       <c r="I13" t="n">
-        <v>4.651</v>
+        <v>3.412</v>
       </c>
       <c r="J13" t="n">
-        <v>4.841</v>
+        <v>3.933</v>
       </c>
       <c r="K13" t="n">
-        <v>4.117</v>
+        <v>3.951</v>
       </c>
     </row>
     <row r="14">
@@ -842,31 +842,31 @@
         <v>2021</v>
       </c>
       <c r="C14" t="n">
-        <v>4.138</v>
+        <v>2.879</v>
       </c>
       <c r="D14" t="n">
-        <v>4.334</v>
+        <v>3.231</v>
       </c>
       <c r="E14" t="n">
+        <v>2.877</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3.462</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.284</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.949</v>
+      </c>
+      <c r="K14" t="n">
         <v>3.951</v>
-      </c>
-      <c r="F14" t="n">
-        <v>4.444</v>
-      </c>
-      <c r="G14" t="n">
-        <v>4.618</v>
-      </c>
-      <c r="H14" t="n">
-        <v>4.826</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4.657</v>
-      </c>
-      <c r="J14" t="n">
-        <v>4.819</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4.117</v>
       </c>
     </row>
     <row r="15">
@@ -877,31 +877,31 @@
         <v>2022</v>
       </c>
       <c r="C15" t="n">
-        <v>4.15</v>
+        <v>2.956</v>
       </c>
       <c r="D15" t="n">
-        <v>4.334</v>
+        <v>3.231</v>
       </c>
       <c r="E15" t="n">
+        <v>2.877</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3.603</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.847</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4.403</v>
+      </c>
+      <c r="K15" t="n">
         <v>3.951</v>
-      </c>
-      <c r="F15" t="n">
-        <v>4.447</v>
-      </c>
-      <c r="G15" t="n">
-        <v>4.618</v>
-      </c>
-      <c r="H15" t="n">
-        <v>4.826</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4.657</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4.835</v>
-      </c>
-      <c r="K15" t="n">
-        <v>4.117</v>
       </c>
     </row>
   </sheetData>
